--- a/data/excel/theo_testfile_single.xlsx
+++ b/data/excel/theo_testfile_single.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="20730" windowHeight="4800"/>
+    <workbookView xWindow="-20" yWindow="-20" windowWidth="25720" windowHeight="13660" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="T. Chart" sheetId="5" r:id="rId1"/>
@@ -12,12 +12,17 @@
     <sheet name="WS" sheetId="3" r:id="rId3"/>
     <sheet name="Data" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="31">
   <si>
     <t>Header</t>
   </si>
@@ -111,22 +116,19 @@
   <si>
     <t xml:space="preserve"> </t>
   </si>
-  <si>
-    <t>E</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
-    <numFmt numFmtId="165" formatCode="0_ "/>
-    <numFmt numFmtId="166" formatCode="0.0_ "/>
-    <numFmt numFmtId="168" formatCode="0.000_ "/>
-    <numFmt numFmtId="169" formatCode="#,000_ "/>
-    <numFmt numFmtId="170" formatCode="#,#00_ "/>
+    <numFmt numFmtId="164" formatCode="0_ "/>
+    <numFmt numFmtId="165" formatCode="0.0_ "/>
+    <numFmt numFmtId="166" formatCode="0.000_ "/>
+    <numFmt numFmtId="167" formatCode="#,000_ "/>
+    <numFmt numFmtId="168" formatCode="#,#00_ "/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -170,16 +172,16 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -188,10 +190,10 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -210,7 +212,17 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-AT"/>
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -229,11 +241,14 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -244,321 +259,319 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Data!$S$6:$S$53</c:f>
+              <c:f>Data!$S$6:$S$51</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
-                  <c:v>21</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-26</c:v>
+                  <c:v>-26.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-23</c:v>
+                  <c:v>-23.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-91</c:v>
+                  <c:v>-91.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-196</c:v>
+                  <c:v>-196.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-263</c:v>
+                  <c:v>-263.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-348</c:v>
+                  <c:v>-348.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-411</c:v>
+                  <c:v>-411.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-486</c:v>
+                  <c:v>-486.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-546</c:v>
+                  <c:v>-546.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-605</c:v>
+                  <c:v>-605.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-667</c:v>
+                  <c:v>-667.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-713</c:v>
+                  <c:v>-713.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-757</c:v>
+                  <c:v>-757.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-801</c:v>
+                  <c:v>-801.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-850</c:v>
+                  <c:v>-850.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-908</c:v>
+                  <c:v>-908.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-963</c:v>
+                  <c:v>-963.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-1010</c:v>
+                  <c:v>-1010.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-1064</c:v>
+                  <c:v>-1064.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-1107</c:v>
+                  <c:v>-1107.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-1162</c:v>
+                  <c:v>-1162.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-1224</c:v>
+                  <c:v>-1224.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-1306</c:v>
+                  <c:v>-1306.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-1401</c:v>
+                  <c:v>-1401.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-1473</c:v>
+                  <c:v>-1473.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-1575</c:v>
+                  <c:v>-1575.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-1661</c:v>
+                  <c:v>-1661.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-1753</c:v>
+                  <c:v>-1753.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-1837</c:v>
+                  <c:v>-1837.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-1915</c:v>
+                  <c:v>-1915.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-1972</c:v>
+                  <c:v>-1972.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-2026</c:v>
+                  <c:v>-2026.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-2074</c:v>
+                  <c:v>-2074.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-2110</c:v>
+                  <c:v>-2110.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-2145</c:v>
+                  <c:v>-2145.0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-2156</c:v>
+                  <c:v>-2156.0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-2169</c:v>
+                  <c:v>-2169.0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-2186</c:v>
+                  <c:v>-2186.0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-2228</c:v>
+                  <c:v>-2228.0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-2286</c:v>
+                  <c:v>-2286.0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-2340</c:v>
+                  <c:v>-2340.0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-2402</c:v>
+                  <c:v>-2402.0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-2469</c:v>
+                  <c:v>-2469.0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-2553</c:v>
+                  <c:v>-2553.0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-2623</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>-3202</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>-3108</c:v>
+                  <c:v>-2623.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Data!$T$6:$T$53</c:f>
+              <c:f>Data!$T$6:$T$51</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
-                  <c:v>-34</c:v>
+                  <c:v>-34.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-52</c:v>
+                  <c:v>-52.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>66</c:v>
+                  <c:v>66.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>131</c:v>
+                  <c:v>131.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>184</c:v>
+                  <c:v>184.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>251</c:v>
+                  <c:v>251.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>303</c:v>
+                  <c:v>303.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>368</c:v>
+                  <c:v>368.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>415</c:v>
+                  <c:v>415.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>462</c:v>
+                  <c:v>462.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>506</c:v>
+                  <c:v>506.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>540</c:v>
+                  <c:v>540.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>562</c:v>
+                  <c:v>562.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>586</c:v>
+                  <c:v>586.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>608</c:v>
+                  <c:v>608.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>626</c:v>
+                  <c:v>626.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>647</c:v>
+                  <c:v>647.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>669</c:v>
+                  <c:v>669.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>693</c:v>
+                  <c:v>693.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>709</c:v>
+                  <c:v>709.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>729</c:v>
+                  <c:v>729.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>748</c:v>
+                  <c:v>748.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>772</c:v>
+                  <c:v>772.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>802</c:v>
+                  <c:v>802.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>826</c:v>
+                  <c:v>826.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>857</c:v>
+                  <c:v>857.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>882</c:v>
+                  <c:v>882.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>913</c:v>
+                  <c:v>913.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>953</c:v>
+                  <c:v>953.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>978</c:v>
+                  <c:v>978.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1010</c:v>
+                  <c:v>1010.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1034</c:v>
+                  <c:v>1034.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1051</c:v>
+                  <c:v>1051.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1071</c:v>
+                  <c:v>1071.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1088</c:v>
+                  <c:v>1088.0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1105</c:v>
+                  <c:v>1105.0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1096</c:v>
+                  <c:v>1096.0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1076</c:v>
+                  <c:v>1076.0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1061</c:v>
+                  <c:v>1061.0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1036</c:v>
+                  <c:v>1036.0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1008</c:v>
+                  <c:v>1008.0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>986</c:v>
+                  <c:v>986.0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>949</c:v>
+                  <c:v>949.0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>921</c:v>
+                  <c:v>921.0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>877</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>956</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>832</c:v>
+                  <c:v>877.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="98973184"/>
-        <c:axId val="93192192"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2081564424"/>
+        <c:axId val="2124727096"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="98973184"/>
+        <c:axId val="2081564424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="3500000000000"/>
-          <c:min val="-3500000000000"/>
+          <c:max val="3.5E12"/>
+          <c:min val="-3.5E12"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -577,21 +590,25 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93192192"/>
+        <c:crossAx val="2124727096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="500000000000"/>
+        <c:majorUnit val="5.0E11"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="93192192"/>
+        <c:axId val="2124727096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1500000000000"/>
-          <c:min val="-1500000000000"/>
+          <c:max val="1.5E12"/>
+          <c:min val="-1.5E12"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -611,23 +628,38 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98973184"/>
+        <c:crossAx val="2081564424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="500000000000"/>
+        <c:majorUnit val="5.0E11"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-AT"/>
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -645,12 +677,14 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -661,321 +695,319 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Data!$U$6:$U$53</c:f>
+              <c:f>Data!$U$6:$U$51</c:f>
               <c:numCache>
                 <c:formatCode>0_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>69.300315819886634</c:v>
+                  <c:v>69.30031581988663</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>183.4152386565103</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>129.93291546574653</c:v>
+                  <c:v>129.9329154657465</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>121.87240707327936</c:v>
+                  <c:v>121.8724070732794</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>128.44307306113652</c:v>
+                  <c:v>128.4430730611365</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>128.21156032868601</c:v>
+                  <c:v>128.211560328686</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>129.2395526674913</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>130.85496260126894</c:v>
+                  <c:v>130.8549626012689</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>128.45979033305423</c:v>
+                  <c:v>128.4597903330542</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>128.36594392033257</c:v>
+                  <c:v>128.3659439203326</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>124.95124755836378</c:v>
+                  <c:v>124.9512475583638</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>126.52277056222501</c:v>
+                  <c:v>126.522770562225</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>116.99258765007988</c:v>
+                  <c:v>116.9925876500799</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>119.140481283507</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>114.11298157483047</c:v>
+                  <c:v>114.1129815748305</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>106.94241765463488</c:v>
+                  <c:v>106.9424176546349</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>111.07547677542732</c:v>
+                  <c:v>111.0754767754273</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>114.31833330924182</c:v>
+                  <c:v>114.3183333092418</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>114.0879240786212</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>111.38400407481321</c:v>
+                  <c:v>111.3840040748132</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>109.59895954774004</c:v>
+                  <c:v>109.59895954774</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>106.74956383640057</c:v>
+                  <c:v>106.7495638364006</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>106.75544618549458</c:v>
+                  <c:v>106.7554461854946</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>107.44762092271986</c:v>
+                  <c:v>107.4476209227199</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>107.97708091623173</c:v>
+                  <c:v>107.9770809162317</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>107.38014734244578</c:v>
+                  <c:v>107.3801473424458</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>105.93570025019744</c:v>
+                  <c:v>105.9357002501974</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>108.31798867521282</c:v>
+                  <c:v>108.3179886752128</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>115.94395847916356</c:v>
+                  <c:v>115.9439584791636</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>107.47229853634046</c:v>
+                  <c:v>107.4722985363405</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>119.76434199433501</c:v>
+                  <c:v>119.764341994335</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>113.62452560675709</c:v>
+                  <c:v>113.6245256067571</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>109.33015668057196</c:v>
+                  <c:v>109.330156680572</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>119.19634231831554</c:v>
+                  <c:v>119.1963423183155</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>116.30228306996709</c:v>
+                  <c:v>116.3022830699671</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>147.77973577091134</c:v>
+                  <c:v>147.7797357709113</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>57.184735858950411</c:v>
+                  <c:v>57.18473585895041</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>40.066558164896051</c:v>
+                  <c:v>40.06655816489605</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>70.081657522841311</c:v>
+                  <c:v>70.08165752284131</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>66.8342378580614</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>62.222492391855539</c:v>
+                  <c:v>62.22249239185553</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>70.109855250637565</c:v>
+                  <c:v>70.10985525063757</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>61.874053387858631</c:v>
+                  <c:v>61.87405338785863</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>71.346430797214907</c:v>
+                  <c:v>71.34643079721491</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>57.630369652996293</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>97.845035975813801</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>322.79906254324499</c:v>
+                  <c:v>57.63036965299629</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Data!$V$6:$V$53</c:f>
+              <c:f>Data!$V$6:$V$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>48</c:v>
+                  <c:v>48.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>72</c:v>
+                  <c:v>72.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>96</c:v>
+                  <c:v>96.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>120</c:v>
+                  <c:v>120.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>144</c:v>
+                  <c:v>144.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>168</c:v>
+                  <c:v>168.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>192</c:v>
+                  <c:v>192.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>216</c:v>
+                  <c:v>216.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>240</c:v>
+                  <c:v>240.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>264</c:v>
+                  <c:v>264.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>288</c:v>
+                  <c:v>288.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>312</c:v>
+                  <c:v>312.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>336</c:v>
+                  <c:v>336.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>360</c:v>
+                  <c:v>360.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>384</c:v>
+                  <c:v>384.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>408</c:v>
+                  <c:v>408.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>432</c:v>
+                  <c:v>432.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>456</c:v>
+                  <c:v>456.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>480</c:v>
+                  <c:v>480.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>504</c:v>
+                  <c:v>504.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>528</c:v>
+                  <c:v>528.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>552</c:v>
+                  <c:v>552.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>576</c:v>
+                  <c:v>576.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>600</c:v>
+                  <c:v>600.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>624</c:v>
+                  <c:v>624.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>648</c:v>
+                  <c:v>648.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>672</c:v>
+                  <c:v>672.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>696</c:v>
+                  <c:v>696.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>720</c:v>
+                  <c:v>720.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>744</c:v>
+                  <c:v>744.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>768</c:v>
+                  <c:v>768.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>792</c:v>
+                  <c:v>792.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>816</c:v>
+                  <c:v>816.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>840</c:v>
+                  <c:v>840.0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>864</c:v>
+                  <c:v>864.0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>888</c:v>
+                  <c:v>888.0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>912</c:v>
+                  <c:v>912.0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>936</c:v>
+                  <c:v>936.0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>960</c:v>
+                  <c:v>960.0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>984</c:v>
+                  <c:v>984.0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1008</c:v>
+                  <c:v>1008.0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1032</c:v>
+                  <c:v>1032.0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1056</c:v>
+                  <c:v>1056.0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1080</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1104</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1128</c:v>
+                  <c:v>1080.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="96893184"/>
-        <c:axId val="88638208"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2125903544"/>
+        <c:axId val="2125898168"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="96893184"/>
+        <c:axId val="2125903544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="360"/>
-          <c:min val="0"/>
+          <c:max val="360.0"/>
+          <c:min val="0.0"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines/>
         <c:title>
@@ -994,21 +1026,24 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0_ " sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88638208"/>
+        <c:crossAx val="2125898168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="45"/>
+        <c:majorUnit val="45.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="88638208"/>
+        <c:axId val="2125898168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="0"/>
+          <c:min val="0.0"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -1027,23 +1062,37 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96893184"/>
+        <c:crossAx val="2125903544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-AT"/>
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1061,12 +1110,14 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1077,321 +1128,319 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Data!$W$6:$W$53</c:f>
+              <c:f>Data!$W$6:$W$51</c:f>
               <c:numCache>
                 <c:formatCode>0.0_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0690913916980893</c:v>
+                  <c:v>5.06909139169809</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.0606718546096161</c:v>
+                  <c:v>6.060671854609616</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.9520032954089466</c:v>
+                  <c:v>8.952003295408946</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>12.27901710349837</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.580276417769074</c:v>
+                  <c:v>8.580276417769073</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.829522103546818</c:v>
+                  <c:v>10.82952210354682</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.1068871109383043</c:v>
+                  <c:v>8.106887110938304</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.9496228884660702</c:v>
+                  <c:v>9.94962288846607</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.6183415340941965</c:v>
+                  <c:v>7.618341534094196</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.5713830879251187</c:v>
+                  <c:v>7.571383087925118</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.6179973843455553</c:v>
+                  <c:v>7.617997384345555</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.7034989392723485</c:v>
+                  <c:v>5.703498939272348</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.8682764580416231</c:v>
+                  <c:v>4.868276458041623</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.0778639972386346</c:v>
+                  <c:v>5.077863997238634</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.3984231515475818</c:v>
+                  <c:v>5.398423151547582</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.0823492434089141</c:v>
+                  <c:v>6.082349243408914</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>5.807963668571575</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.2015007970087135</c:v>
+                  <c:v>5.201500797008713</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.9640876186397298</c:v>
+                  <c:v>5.96408761863973</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.5345550426963914</c:v>
+                  <c:v>4.534555042696391</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.8248051034460424</c:v>
+                  <c:v>5.824805103446042</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6.5205865254195574</c:v>
+                  <c:v>6.520586525419557</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>8.5781034342543769</c:v>
+                  <c:v>8.578103434254377</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>9.9038453524919952</c:v>
+                  <c:v>9.903845352491995</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7.6241326580548279</c:v>
+                  <c:v>7.624132658054828</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>10.631297303737231</c:v>
+                  <c:v>10.63129730373723</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>9.0048069517503855</c:v>
+                  <c:v>9.004806951750385</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>9.6688019078272252</c:v>
+                  <c:v>9.668801907827225</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>9.3101595330898252</c:v>
+                  <c:v>9.310159533089825</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>8.2484166536006374</c:v>
+                  <c:v>8.248416653600637</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>6.5332835730154057</c:v>
+                  <c:v>6.533283573015406</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>5.8424137073974487</c:v>
+                  <c:v>5.842413707397449</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5.1424011094353403</c:v>
+                  <c:v>5.14240110943534</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>4.0689819538731671</c:v>
+                  <c:v>4.068981953873167</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.9581515099473288</c:v>
+                  <c:v>3.958151509947329</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.9770194622263144</c:v>
+                  <c:v>1.977019462226314</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.6171593478688284</c:v>
+                  <c:v>1.617159347868828</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2.6214737265364039</c:v>
+                  <c:v>2.621473726536404</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4.4811295815796033</c:v>
+                  <c:v>4.481129581579603</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>6.3046303565629058</c:v>
+                  <c:v>6.304630356562906</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>6.0239158342069521</c:v>
+                  <c:v>6.023915834206952</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>6.6186697869051327</c:v>
+                  <c:v>6.618669786905132</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>7.6659596107269818</c:v>
+                  <c:v>7.665959610726982</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>8.8272517195029714</c:v>
+                  <c:v>8.827251719502971</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>8.3066083244752473</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>58.462368077383452</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>15.602645907308414</c:v>
+                  <c:v>8.306608324475247</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Data!$X$6:$X$53</c:f>
+              <c:f>Data!$X$6:$X$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>48</c:v>
+                  <c:v>48.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>72</c:v>
+                  <c:v>72.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>96</c:v>
+                  <c:v>96.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>120</c:v>
+                  <c:v>120.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>144</c:v>
+                  <c:v>144.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>168</c:v>
+                  <c:v>168.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>192</c:v>
+                  <c:v>192.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>216</c:v>
+                  <c:v>216.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>240</c:v>
+                  <c:v>240.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>264</c:v>
+                  <c:v>264.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>288</c:v>
+                  <c:v>288.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>312</c:v>
+                  <c:v>312.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>336</c:v>
+                  <c:v>336.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>360</c:v>
+                  <c:v>360.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>384</c:v>
+                  <c:v>384.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>408</c:v>
+                  <c:v>408.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>432</c:v>
+                  <c:v>432.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>456</c:v>
+                  <c:v>456.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>480</c:v>
+                  <c:v>480.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>504</c:v>
+                  <c:v>504.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>528</c:v>
+                  <c:v>528.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>552</c:v>
+                  <c:v>552.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>576</c:v>
+                  <c:v>576.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>600</c:v>
+                  <c:v>600.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>624</c:v>
+                  <c:v>624.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>648</c:v>
+                  <c:v>648.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>672</c:v>
+                  <c:v>672.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>696</c:v>
+                  <c:v>696.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>720</c:v>
+                  <c:v>720.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>744</c:v>
+                  <c:v>744.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>768</c:v>
+                  <c:v>768.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>792</c:v>
+                  <c:v>792.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>816</c:v>
+                  <c:v>816.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>840</c:v>
+                  <c:v>840.0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>864</c:v>
+                  <c:v>864.0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>888</c:v>
+                  <c:v>888.0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>912</c:v>
+                  <c:v>912.0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>936</c:v>
+                  <c:v>936.0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>960</c:v>
+                  <c:v>960.0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>984</c:v>
+                  <c:v>984.0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1008</c:v>
+                  <c:v>1008.0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1032</c:v>
+                  <c:v>1032.0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1056</c:v>
+                  <c:v>1056.0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1080</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1104</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1128</c:v>
+                  <c:v>1080.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="84461056"/>
-        <c:axId val="84445056"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2124708792"/>
+        <c:axId val="2124692376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="84461056"/>
+        <c:axId val="2124708792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="60000000000"/>
-          <c:min val="0"/>
+          <c:max val="6.0E10"/>
+          <c:min val="0.0"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines/>
         <c:title>
@@ -1410,21 +1459,24 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0_ " sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84445056"/>
+        <c:crossAx val="2124692376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="6000000000"/>
+        <c:majorUnit val="6.0E9"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="84445056"/>
+        <c:axId val="2124692376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="0"/>
+          <c:min val="0.0"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -1443,16 +1495,20 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84461056"/>
+        <c:crossAx val="2124708792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
 </c:chartSpace>
 </file>
@@ -1461,7 +1517,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="108" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="99" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1494,7 +1550,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9313333" cy="6023681"/>
+    <xdr:ext cx="9210707" cy="5618788"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Diagramm 1"/>
@@ -1855,26 +1911,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X51"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52:XFD52"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="5.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="3.7109375" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" customWidth="1"/>
-    <col min="8" max="9" width="10.7109375" style="8" customWidth="1"/>
-    <col min="10" max="11" width="13.28515625" style="6" customWidth="1"/>
-    <col min="12" max="13" width="10.7109375" style="6" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" customWidth="1"/>
-    <col min="15" max="15" width="13.28515625" style="2" customWidth="1"/>
-    <col min="16" max="16" width="13.28515625" style="9" customWidth="1"/>
-    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="6" customWidth="1"/>
-    <col min="21" max="24" width="14.7109375" customWidth="1"/>
+    <col min="1" max="2" width="5.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="3.6640625" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" customWidth="1"/>
+    <col min="8" max="9" width="10.6640625" style="8" customWidth="1"/>
+    <col min="10" max="11" width="13.33203125" style="6" customWidth="1"/>
+    <col min="12" max="13" width="10.6640625" style="6" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" customWidth="1"/>
+    <col min="15" max="15" width="13.33203125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="13.33203125" style="9" customWidth="1"/>
+    <col min="17" max="17" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.6640625" style="6" customWidth="1"/>
+    <col min="21" max="24" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
@@ -2066,27 +2124,27 @@
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
       <c r="S6" s="6">
-        <f>ROUND(K6,0)</f>
+        <f t="shared" ref="S6:S51" si="1">ROUND(K6,0)</f>
         <v>21</v>
       </c>
       <c r="T6" s="6">
-        <f>ROUND(J6,0)</f>
+        <f t="shared" ref="T6:T51" si="2">ROUND(J6,0)</f>
         <v>-34</v>
       </c>
       <c r="U6" s="2">
-        <f t="shared" ref="U6:U7" si="1">+O6</f>
+        <f t="shared" ref="U6:U7" si="3">+O6</f>
         <v>0</v>
       </c>
       <c r="V6">
-        <f t="shared" ref="V6:V7" si="2">+G6</f>
+        <f t="shared" ref="V6:V7" si="4">+G6</f>
         <v>0</v>
       </c>
       <c r="W6" s="3">
-        <f t="shared" ref="W6:W7" si="3">+P6</f>
+        <f t="shared" ref="W6:W7" si="5">+P6</f>
         <v>0</v>
       </c>
       <c r="X6">
-        <f t="shared" ref="X6:X7" si="4">+G6</f>
+        <f t="shared" ref="X6:X7" si="6">+G6</f>
         <v>0</v>
       </c>
     </row>
@@ -2107,7 +2165,7 @@
         <v>206.86</v>
       </c>
       <c r="G7">
-        <f>+J$3*L$3*(C7-C$6)/M$3+K$3</f>
+        <f t="shared" ref="G7:G51" si="7">+J$3*L$3*(C7-C$6)/M$3+K$3</f>
         <v>24</v>
       </c>
       <c r="H7" s="8">
@@ -2119,55 +2177,55 @@
         <v>206.86</v>
       </c>
       <c r="J7" s="6">
-        <f t="shared" ref="J7" si="5">G7*COS(I7*PI()/180)/TAN(H7*PI()/180)</f>
+        <f t="shared" ref="J7" si="8">G7*COS(I7*PI()/180)/TAN(H7*PI()/180)</f>
         <v>-51.869188547479695</v>
       </c>
       <c r="K7" s="6">
-        <f t="shared" ref="K7" si="6">G7*SIN(I7*PI()/180)/TAN(H7*PI()/180)</f>
+        <f t="shared" ref="K7" si="9">G7*SIN(I7*PI()/180)/TAN(H7*PI()/180)</f>
         <v>-26.269225623931792</v>
       </c>
       <c r="L7" s="6">
-        <f t="shared" ref="L7:M7" si="7">J7-J6</f>
+        <f t="shared" ref="L7:M7" si="10">J7-J6</f>
         <v>-17.917701502124423</v>
       </c>
       <c r="M7" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>-47.418611605777059</v>
       </c>
       <c r="N7">
-        <f t="shared" ref="N7" si="8">ATAN(M7/L7)*180/PI()</f>
+        <f t="shared" ref="N7" si="11">ATAN(M7/L7)*180/PI()</f>
         <v>69.300315819886634</v>
       </c>
       <c r="O7" s="2">
-        <f t="shared" ref="O7" si="9">IF(L7=0,IF(M7&gt;0,270,90),IF(L7&lt;0,IF(M7&gt;0,N7+360,N7),N7+180))</f>
+        <f t="shared" ref="O7" si="12">IF(L7=0,IF(M7&gt;0,270,90),IF(L7&lt;0,IF(M7&gt;0,N7+360,N7),N7+180))</f>
         <v>69.300315819886634</v>
       </c>
       <c r="P7" s="9">
-        <f>(SQRT(L7*L7+M7*M7))/(C7-C6)*(P$1)</f>
+        <f t="shared" ref="P7:P51" si="13">(SQRT(L7*L7+M7*M7))/(C7-C6)*(P$1)</f>
         <v>5.0690913916980893</v>
       </c>
       <c r="S7" s="6">
-        <f>ROUND(K7,0)</f>
+        <f t="shared" si="1"/>
         <v>-26</v>
       </c>
       <c r="T7" s="6">
-        <f>ROUND(J7,0)</f>
+        <f t="shared" si="2"/>
         <v>-52</v>
       </c>
       <c r="U7" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>69.300315819886634</v>
       </c>
       <c r="V7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="W7" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.0690913916980893</v>
       </c>
       <c r="X7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
     </row>
@@ -2188,67 +2246,67 @@
         <v>290.85000000000002</v>
       </c>
       <c r="G8">
-        <f>+J$3*L$3*(C8-C$6)/M$3+K$3</f>
+        <f t="shared" si="7"/>
         <v>48</v>
       </c>
       <c r="H8" s="8">
-        <f t="shared" ref="H8:H53" si="10">+D8</f>
+        <f t="shared" ref="H8:H51" si="14">+D8</f>
         <v>63.2</v>
       </c>
       <c r="I8" s="8">
-        <f t="shared" ref="I8:I53" si="11">+E8</f>
+        <f t="shared" ref="I8:I51" si="15">+E8</f>
         <v>290.85000000000002</v>
       </c>
       <c r="J8" s="6">
-        <f t="shared" ref="J8:J53" si="12">G8*COS(I8*PI()/180)/TAN(H8*PI()/180)</f>
+        <f t="shared" ref="J8:J51" si="16">G8*COS(I8*PI()/180)/TAN(H8*PI()/180)</f>
         <v>8.6298936309743244</v>
       </c>
       <c r="K8" s="6">
-        <f t="shared" ref="K8:K53" si="13">G8*SIN(I8*PI()/180)/TAN(H8*PI()/180)</f>
+        <f t="shared" ref="K8:K51" si="17">G8*SIN(I8*PI()/180)/TAN(H8*PI()/180)</f>
         <v>-22.658770183078939</v>
       </c>
       <c r="L8" s="6">
-        <f t="shared" ref="L8:L53" si="14">J8-J7</f>
+        <f t="shared" ref="L8:L51" si="18">J8-J7</f>
         <v>60.499082178454017</v>
       </c>
       <c r="M8" s="6">
-        <f t="shared" ref="M8:M53" si="15">K8-K7</f>
+        <f t="shared" ref="M8:M51" si="19">K8-K7</f>
         <v>3.6104554408528529</v>
       </c>
       <c r="N8">
-        <f t="shared" ref="N8:N53" si="16">ATAN(M8/L8)*180/PI()</f>
+        <f t="shared" ref="N8:N51" si="20">ATAN(M8/L8)*180/PI()</f>
         <v>3.4152386565102968</v>
       </c>
       <c r="O8" s="2">
-        <f t="shared" ref="O8:O53" si="17">IF(L8=0,IF(M8&gt;0,270,90),IF(L8&lt;0,IF(M8&gt;0,N8+360,N8),N8+180))</f>
+        <f t="shared" ref="O8:O51" si="21">IF(L8=0,IF(M8&gt;0,270,90),IF(L8&lt;0,IF(M8&gt;0,N8+360,N8),N8+180))</f>
         <v>183.4152386565103</v>
       </c>
       <c r="P8" s="9">
-        <f>(SQRT(L8*L8+M8*M8))/(C8-C7)*(P$1)</f>
+        <f t="shared" si="13"/>
         <v>6.0606718546096161</v>
       </c>
       <c r="S8" s="6">
-        <f>ROUND(K8,0)</f>
+        <f t="shared" si="1"/>
         <v>-23</v>
       </c>
       <c r="T8" s="6">
-        <f>ROUND(J8,0)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="U8" s="2">
-        <f t="shared" ref="U8:U53" si="18">+O8</f>
+        <f t="shared" ref="U8:U51" si="22">+O8</f>
         <v>183.4152386565103</v>
       </c>
       <c r="V8">
-        <f t="shared" ref="V8:V53" si="19">+G8</f>
+        <f t="shared" ref="V8:V51" si="23">+G8</f>
         <v>48</v>
       </c>
       <c r="W8" s="3">
-        <f t="shared" ref="W8:W53" si="20">+P8</f>
+        <f t="shared" ref="W8:W51" si="24">+P8</f>
         <v>6.0606718546096161</v>
       </c>
       <c r="X8">
-        <f t="shared" ref="X8:X53" si="21">+G8</f>
+        <f t="shared" ref="X8:X51" si="25">+G8</f>
         <v>48</v>
       </c>
     </row>
@@ -2269,67 +2327,67 @@
         <v>305.89999999999998</v>
       </c>
       <c r="G9">
-        <f>+J$3*L$3*(C9-C$6)/M$3+K$3</f>
+        <f t="shared" si="7"/>
         <v>72</v>
       </c>
       <c r="H9" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>32.57</v>
       </c>
       <c r="I9" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>305.89999999999998</v>
       </c>
       <c r="J9" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>66.091929894693067</v>
       </c>
       <c r="K9" s="6">
+        <f t="shared" si="17"/>
+        <v>-91.302420206430227</v>
+      </c>
+      <c r="L9" s="6">
+        <f t="shared" si="18"/>
+        <v>57.462036263718744</v>
+      </c>
+      <c r="M9" s="6">
+        <f t="shared" si="19"/>
+        <v>-68.643650023351285</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="20"/>
+        <v>-50.067084534253482</v>
+      </c>
+      <c r="O9" s="2">
+        <f t="shared" si="21"/>
+        <v>129.93291546574653</v>
+      </c>
+      <c r="P9" s="9">
         <f t="shared" si="13"/>
-        <v>-91.302420206430227</v>
-      </c>
-      <c r="L9" s="6">
-        <f t="shared" si="14"/>
-        <v>57.462036263718744</v>
-      </c>
-      <c r="M9" s="6">
-        <f t="shared" si="15"/>
-        <v>-68.643650023351285</v>
-      </c>
-      <c r="N9">
-        <f t="shared" si="16"/>
-        <v>-50.067084534253482</v>
-      </c>
-      <c r="O9" s="2">
-        <f t="shared" si="17"/>
+        <v>8.9520032954089466</v>
+      </c>
+      <c r="S9" s="6">
+        <f t="shared" si="1"/>
+        <v>-91</v>
+      </c>
+      <c r="T9" s="6">
+        <f t="shared" si="2"/>
+        <v>66</v>
+      </c>
+      <c r="U9" s="2">
+        <f t="shared" si="22"/>
         <v>129.93291546574653</v>
       </c>
-      <c r="P9" s="9">
-        <f>(SQRT(L9*L9+M9*M9))/(C9-C8)*(P$1)</f>
+      <c r="V9">
+        <f t="shared" si="23"/>
+        <v>72</v>
+      </c>
+      <c r="W9" s="3">
+        <f t="shared" si="24"/>
         <v>8.9520032954089466</v>
       </c>
-      <c r="S9" s="6">
-        <f>ROUND(K9,0)</f>
-        <v>-91</v>
-      </c>
-      <c r="T9" s="6">
-        <f>ROUND(J9,0)</f>
-        <v>66</v>
-      </c>
-      <c r="U9" s="2">
-        <f t="shared" si="18"/>
-        <v>129.93291546574653</v>
-      </c>
-      <c r="V9">
-        <f t="shared" si="19"/>
-        <v>72</v>
-      </c>
-      <c r="W9" s="3">
-        <f t="shared" si="20"/>
-        <v>8.9520032954089466</v>
-      </c>
       <c r="X9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>72</v>
       </c>
     </row>
@@ -2350,67 +2408,67 @@
         <v>303.8</v>
       </c>
       <c r="G10">
-        <f>+J$3*L$3*(C10-C$6)/M$3+K$3</f>
+        <f t="shared" si="7"/>
         <v>96</v>
       </c>
       <c r="H10" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>22.19</v>
       </c>
       <c r="I10" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>303.8</v>
       </c>
       <c r="J10" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>130.92875261097461</v>
       </c>
       <c r="K10" s="6">
+        <f t="shared" si="17"/>
+        <v>-195.57903562358896</v>
+      </c>
+      <c r="L10" s="6">
+        <f t="shared" si="18"/>
+        <v>64.836822716281546</v>
+      </c>
+      <c r="M10" s="6">
+        <f t="shared" si="19"/>
+        <v>-104.27661541715874</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="20"/>
+        <v>-58.127592926720638</v>
+      </c>
+      <c r="O10" s="2">
+        <f t="shared" si="21"/>
+        <v>121.87240707327936</v>
+      </c>
+      <c r="P10" s="9">
         <f t="shared" si="13"/>
-        <v>-195.57903562358896</v>
-      </c>
-      <c r="L10" s="6">
-        <f t="shared" si="14"/>
-        <v>64.836822716281546</v>
-      </c>
-      <c r="M10" s="6">
-        <f t="shared" si="15"/>
-        <v>-104.27661541715874</v>
-      </c>
-      <c r="N10">
-        <f t="shared" si="16"/>
-        <v>-58.127592926720638</v>
-      </c>
-      <c r="O10" s="2">
-        <f t="shared" si="17"/>
+        <v>12.27901710349837</v>
+      </c>
+      <c r="S10" s="6">
+        <f t="shared" si="1"/>
+        <v>-196</v>
+      </c>
+      <c r="T10" s="6">
+        <f t="shared" si="2"/>
+        <v>131</v>
+      </c>
+      <c r="U10" s="2">
+        <f t="shared" si="22"/>
         <v>121.87240707327936</v>
       </c>
-      <c r="P10" s="9">
-        <f>(SQRT(L10*L10+M10*M10))/(C10-C9)*(P$1)</f>
+      <c r="V10">
+        <f t="shared" si="23"/>
+        <v>96</v>
+      </c>
+      <c r="W10" s="3">
+        <f t="shared" si="24"/>
         <v>12.27901710349837</v>
       </c>
-      <c r="S10" s="6">
-        <f>ROUND(K10,0)</f>
-        <v>-196</v>
-      </c>
-      <c r="T10" s="6">
-        <f>ROUND(J10,0)</f>
-        <v>131</v>
-      </c>
-      <c r="U10" s="2">
-        <f t="shared" si="18"/>
-        <v>121.87240707327936</v>
-      </c>
-      <c r="V10">
-        <f t="shared" si="19"/>
-        <v>96</v>
-      </c>
-      <c r="W10" s="3">
-        <f t="shared" si="20"/>
-        <v>12.27901710349837</v>
-      </c>
       <c r="X10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>96</v>
       </c>
     </row>
@@ -2431,67 +2489,67 @@
         <v>305.04000000000002</v>
       </c>
       <c r="G11">
-        <f>+J$3*L$3*(C11-C$6)/M$3+K$3</f>
+        <f t="shared" si="7"/>
         <v>120</v>
       </c>
       <c r="H11" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>20.5</v>
       </c>
       <c r="I11" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>305.04000000000002</v>
       </c>
       <c r="J11" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>184.27548515607734</v>
       </c>
       <c r="K11" s="6">
+        <f t="shared" si="17"/>
+        <v>-262.78201522489599</v>
+      </c>
+      <c r="L11" s="6">
+        <f t="shared" si="18"/>
+        <v>53.346732545102725</v>
+      </c>
+      <c r="M11" s="6">
+        <f t="shared" si="19"/>
+        <v>-67.202979601307021</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="20"/>
+        <v>-51.556926938863484</v>
+      </c>
+      <c r="O11" s="2">
+        <f t="shared" si="21"/>
+        <v>128.44307306113652</v>
+      </c>
+      <c r="P11" s="9">
         <f t="shared" si="13"/>
-        <v>-262.78201522489599</v>
-      </c>
-      <c r="L11" s="6">
-        <f t="shared" si="14"/>
-        <v>53.346732545102725</v>
-      </c>
-      <c r="M11" s="6">
-        <f t="shared" si="15"/>
-        <v>-67.202979601307021</v>
-      </c>
-      <c r="N11">
-        <f t="shared" si="16"/>
-        <v>-51.556926938863484</v>
-      </c>
-      <c r="O11" s="2">
-        <f t="shared" si="17"/>
+        <v>8.580276417769074</v>
+      </c>
+      <c r="S11" s="6">
+        <f t="shared" si="1"/>
+        <v>-263</v>
+      </c>
+      <c r="T11" s="6">
+        <f t="shared" si="2"/>
+        <v>184</v>
+      </c>
+      <c r="U11" s="2">
+        <f t="shared" si="22"/>
         <v>128.44307306113652</v>
       </c>
-      <c r="P11" s="9">
-        <f>(SQRT(L11*L11+M11*M11))/(C11-C10)*(P$1)</f>
+      <c r="V11">
+        <f t="shared" si="23"/>
+        <v>120</v>
+      </c>
+      <c r="W11" s="3">
+        <f t="shared" si="24"/>
         <v>8.580276417769074</v>
       </c>
-      <c r="S11" s="6">
-        <f>ROUND(K11,0)</f>
-        <v>-263</v>
-      </c>
-      <c r="T11" s="6">
-        <f>ROUND(J11,0)</f>
-        <v>184</v>
-      </c>
-      <c r="U11" s="2">
-        <f t="shared" si="18"/>
-        <v>128.44307306113652</v>
-      </c>
-      <c r="V11">
-        <f t="shared" si="19"/>
-        <v>120</v>
-      </c>
-      <c r="W11" s="3">
-        <f t="shared" si="20"/>
-        <v>8.580276417769074</v>
-      </c>
       <c r="X11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>120</v>
       </c>
     </row>
@@ -2512,67 +2570,67 @@
         <v>305.83999999999997</v>
       </c>
       <c r="G12">
-        <f>+J$3*L$3*(C12-C$6)/M$3+K$3</f>
+        <f t="shared" si="7"/>
         <v>144</v>
       </c>
       <c r="H12" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>18.55</v>
       </c>
       <c r="I12" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>305.83999999999997</v>
       </c>
       <c r="J12" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>251.26332884486953</v>
       </c>
       <c r="K12" s="6">
+        <f t="shared" si="17"/>
+        <v>-347.87304704991766</v>
+      </c>
+      <c r="L12" s="6">
+        <f t="shared" si="18"/>
+        <v>66.987843688792196</v>
+      </c>
+      <c r="M12" s="6">
+        <f t="shared" si="19"/>
+        <v>-85.091031825021673</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="20"/>
+        <v>-51.788439671313981</v>
+      </c>
+      <c r="O12" s="2">
+        <f t="shared" si="21"/>
+        <v>128.21156032868601</v>
+      </c>
+      <c r="P12" s="9">
         <f t="shared" si="13"/>
-        <v>-347.87304704991766</v>
-      </c>
-      <c r="L12" s="6">
-        <f t="shared" si="14"/>
-        <v>66.987843688792196</v>
-      </c>
-      <c r="M12" s="6">
-        <f t="shared" si="15"/>
-        <v>-85.091031825021673</v>
-      </c>
-      <c r="N12">
-        <f t="shared" si="16"/>
-        <v>-51.788439671313981</v>
-      </c>
-      <c r="O12" s="2">
-        <f t="shared" si="17"/>
+        <v>10.829522103546818</v>
+      </c>
+      <c r="S12" s="6">
+        <f t="shared" si="1"/>
+        <v>-348</v>
+      </c>
+      <c r="T12" s="6">
+        <f t="shared" si="2"/>
+        <v>251</v>
+      </c>
+      <c r="U12" s="2">
+        <f t="shared" si="22"/>
         <v>128.21156032868601</v>
       </c>
-      <c r="P12" s="9">
-        <f>(SQRT(L12*L12+M12*M12))/(C12-C11)*(P$1)</f>
+      <c r="V12">
+        <f t="shared" si="23"/>
+        <v>144</v>
+      </c>
+      <c r="W12" s="3">
+        <f t="shared" si="24"/>
         <v>10.829522103546818</v>
       </c>
-      <c r="S12" s="6">
-        <f>ROUND(K12,0)</f>
-        <v>-348</v>
-      </c>
-      <c r="T12" s="6">
-        <f>ROUND(J12,0)</f>
-        <v>251</v>
-      </c>
-      <c r="U12" s="2">
-        <f t="shared" si="18"/>
-        <v>128.21156032868601</v>
-      </c>
-      <c r="V12">
-        <f t="shared" si="19"/>
-        <v>144</v>
-      </c>
-      <c r="W12" s="3">
-        <f t="shared" si="20"/>
-        <v>10.829522103546818</v>
-      </c>
       <c r="X12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>144</v>
       </c>
     </row>
@@ -2593,67 +2651,67 @@
         <v>306.38</v>
       </c>
       <c r="G13">
-        <f>+J$3*L$3*(C13-C$6)/M$3+K$3</f>
+        <f t="shared" si="7"/>
         <v>168</v>
       </c>
       <c r="H13" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>18.23</v>
       </c>
       <c r="I13" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>306.38</v>
       </c>
       <c r="J13" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>302.5445875537813</v>
       </c>
       <c r="K13" s="6">
+        <f t="shared" si="17"/>
+        <v>-410.66153618749303</v>
+      </c>
+      <c r="L13" s="6">
+        <f t="shared" si="18"/>
+        <v>51.281258708911764</v>
+      </c>
+      <c r="M13" s="6">
+        <f t="shared" si="19"/>
+        <v>-62.788489137575368</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="20"/>
+        <v>-50.76044733250869</v>
+      </c>
+      <c r="O13" s="2">
+        <f t="shared" si="21"/>
+        <v>129.2395526674913</v>
+      </c>
+      <c r="P13" s="9">
         <f t="shared" si="13"/>
-        <v>-410.66153618749303</v>
-      </c>
-      <c r="L13" s="6">
-        <f t="shared" si="14"/>
-        <v>51.281258708911764</v>
-      </c>
-      <c r="M13" s="6">
-        <f t="shared" si="15"/>
-        <v>-62.788489137575368</v>
-      </c>
-      <c r="N13">
-        <f t="shared" si="16"/>
-        <v>-50.76044733250869</v>
-      </c>
-      <c r="O13" s="2">
-        <f t="shared" si="17"/>
+        <v>8.1068871109383043</v>
+      </c>
+      <c r="S13" s="6">
+        <f t="shared" si="1"/>
+        <v>-411</v>
+      </c>
+      <c r="T13" s="6">
+        <f t="shared" si="2"/>
+        <v>303</v>
+      </c>
+      <c r="U13" s="2">
+        <f t="shared" si="22"/>
         <v>129.2395526674913</v>
       </c>
-      <c r="P13" s="9">
-        <f>(SQRT(L13*L13+M13*M13))/(C13-C12)*(P$1)</f>
+      <c r="V13">
+        <f t="shared" si="23"/>
+        <v>168</v>
+      </c>
+      <c r="W13" s="3">
+        <f t="shared" si="24"/>
         <v>8.1068871109383043</v>
       </c>
-      <c r="S13" s="6">
-        <f>ROUND(K13,0)</f>
-        <v>-411</v>
-      </c>
-      <c r="T13" s="6">
-        <f>ROUND(J13,0)</f>
-        <v>303</v>
-      </c>
-      <c r="U13" s="2">
-        <f t="shared" si="18"/>
-        <v>129.2395526674913</v>
-      </c>
-      <c r="V13">
-        <f t="shared" si="19"/>
-        <v>168</v>
-      </c>
-      <c r="W13" s="3">
-        <f t="shared" si="20"/>
-        <v>8.1068871109383043</v>
-      </c>
       <c r="X13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>168</v>
       </c>
     </row>
@@ -2674,67 +2732,67 @@
         <v>307.11</v>
       </c>
       <c r="G14">
-        <f>+J$3*L$3*(C14-C$6)/M$3+K$3</f>
+        <f t="shared" si="7"/>
         <v>192</v>
       </c>
       <c r="H14" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>17.489999999999998</v>
       </c>
       <c r="I14" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>307.11</v>
       </c>
       <c r="J14" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>367.62969467675606</v>
       </c>
       <c r="K14" s="6">
+        <f t="shared" si="17"/>
+        <v>-485.91728940981943</v>
+      </c>
+      <c r="L14" s="6">
+        <f t="shared" si="18"/>
+        <v>65.085107122974762</v>
+      </c>
+      <c r="M14" s="6">
+        <f t="shared" si="19"/>
+        <v>-75.255753222326405</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="20"/>
+        <v>-49.145037398731077</v>
+      </c>
+      <c r="O14" s="2">
+        <f t="shared" si="21"/>
+        <v>130.85496260126894</v>
+      </c>
+      <c r="P14" s="9">
         <f t="shared" si="13"/>
-        <v>-485.91728940981943</v>
-      </c>
-      <c r="L14" s="6">
-        <f t="shared" si="14"/>
-        <v>65.085107122974762</v>
-      </c>
-      <c r="M14" s="6">
-        <f t="shared" si="15"/>
-        <v>-75.255753222326405</v>
-      </c>
-      <c r="N14">
-        <f t="shared" si="16"/>
-        <v>-49.145037398731077</v>
-      </c>
-      <c r="O14" s="2">
-        <f t="shared" si="17"/>
+        <v>9.9496228884660702</v>
+      </c>
+      <c r="S14" s="6">
+        <f t="shared" si="1"/>
+        <v>-486</v>
+      </c>
+      <c r="T14" s="6">
+        <f t="shared" si="2"/>
+        <v>368</v>
+      </c>
+      <c r="U14" s="2">
+        <f t="shared" si="22"/>
         <v>130.85496260126894</v>
       </c>
-      <c r="P14" s="9">
-        <f>(SQRT(L14*L14+M14*M14))/(C14-C13)*(P$1)</f>
+      <c r="V14">
+        <f t="shared" si="23"/>
+        <v>192</v>
+      </c>
+      <c r="W14" s="3">
+        <f t="shared" si="24"/>
         <v>9.9496228884660702</v>
       </c>
-      <c r="S14" s="6">
-        <f>ROUND(K14,0)</f>
-        <v>-486</v>
-      </c>
-      <c r="T14" s="6">
-        <f>ROUND(J14,0)</f>
-        <v>368</v>
-      </c>
-      <c r="U14" s="2">
-        <f t="shared" si="18"/>
-        <v>130.85496260126894</v>
-      </c>
-      <c r="V14">
-        <f t="shared" si="19"/>
-        <v>192</v>
-      </c>
-      <c r="W14" s="3">
-        <f t="shared" si="20"/>
-        <v>9.9496228884660702</v>
-      </c>
       <c r="X14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>192</v>
       </c>
     </row>
@@ -2755,67 +2813,67 @@
         <v>307.26</v>
       </c>
       <c r="G15">
-        <f>+J$3*L$3*(C15-C$6)/M$3+K$3</f>
+        <f t="shared" si="7"/>
         <v>216</v>
       </c>
       <c r="H15" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>17.489999999999998</v>
       </c>
       <c r="I15" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>307.26</v>
       </c>
       <c r="J15" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>415.01313209934824</v>
       </c>
       <c r="K15" s="6">
+        <f t="shared" si="17"/>
+        <v>-545.572319633848</v>
+      </c>
+      <c r="L15" s="6">
+        <f t="shared" si="18"/>
+        <v>47.383437422592181</v>
+      </c>
+      <c r="M15" s="6">
+        <f t="shared" si="19"/>
+        <v>-59.655030224028565</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="20"/>
+        <v>-51.540209666945771</v>
+      </c>
+      <c r="O15" s="2">
+        <f t="shared" si="21"/>
+        <v>128.45979033305423</v>
+      </c>
+      <c r="P15" s="9">
         <f t="shared" si="13"/>
-        <v>-545.572319633848</v>
-      </c>
-      <c r="L15" s="6">
-        <f t="shared" si="14"/>
-        <v>47.383437422592181</v>
-      </c>
-      <c r="M15" s="6">
-        <f t="shared" si="15"/>
-        <v>-59.655030224028565</v>
-      </c>
-      <c r="N15">
-        <f t="shared" si="16"/>
-        <v>-51.540209666945771</v>
-      </c>
-      <c r="O15" s="2">
-        <f t="shared" si="17"/>
+        <v>7.6183415340941965</v>
+      </c>
+      <c r="S15" s="6">
+        <f t="shared" si="1"/>
+        <v>-546</v>
+      </c>
+      <c r="T15" s="6">
+        <f t="shared" si="2"/>
+        <v>415</v>
+      </c>
+      <c r="U15" s="2">
+        <f t="shared" si="22"/>
         <v>128.45979033305423</v>
       </c>
-      <c r="P15" s="9">
-        <f>(SQRT(L15*L15+M15*M15))/(C15-C14)*(P$1)</f>
+      <c r="V15">
+        <f t="shared" si="23"/>
+        <v>216</v>
+      </c>
+      <c r="W15" s="3">
+        <f t="shared" si="24"/>
         <v>7.6183415340941965</v>
       </c>
-      <c r="S15" s="6">
-        <f>ROUND(K15,0)</f>
-        <v>-546</v>
-      </c>
-      <c r="T15" s="6">
-        <f>ROUND(J15,0)</f>
-        <v>415</v>
-      </c>
-      <c r="U15" s="2">
-        <f t="shared" si="18"/>
-        <v>128.45979033305423</v>
-      </c>
-      <c r="V15">
-        <f t="shared" si="19"/>
-        <v>216</v>
-      </c>
-      <c r="W15" s="3">
-        <f t="shared" si="20"/>
-        <v>7.6183415340941965</v>
-      </c>
       <c r="X15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>216</v>
       </c>
     </row>
@@ -2836,67 +2894,67 @@
         <v>307.37</v>
       </c>
       <c r="G16">
-        <f>+J$3*L$3*(C16-C$6)/M$3+K$3</f>
+        <f t="shared" si="7"/>
         <v>240</v>
       </c>
       <c r="H16" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>17.5</v>
       </c>
       <c r="I16" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>307.37</v>
       </c>
       <c r="J16" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>462.00733275498214</v>
       </c>
       <c r="K16" s="6">
+        <f t="shared" si="17"/>
+        <v>-604.93669692486208</v>
+      </c>
+      <c r="L16" s="6">
+        <f t="shared" si="18"/>
+        <v>46.994200655633904</v>
+      </c>
+      <c r="M16" s="6">
+        <f t="shared" si="19"/>
+        <v>-59.36437729101408</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="20"/>
+        <v>-51.634056079667438</v>
+      </c>
+      <c r="O16" s="2">
+        <f t="shared" si="21"/>
+        <v>128.36594392033257</v>
+      </c>
+      <c r="P16" s="9">
         <f t="shared" si="13"/>
-        <v>-604.93669692486208</v>
-      </c>
-      <c r="L16" s="6">
-        <f t="shared" si="14"/>
-        <v>46.994200655633904</v>
-      </c>
-      <c r="M16" s="6">
-        <f t="shared" si="15"/>
-        <v>-59.36437729101408</v>
-      </c>
-      <c r="N16">
-        <f t="shared" si="16"/>
-        <v>-51.634056079667438</v>
-      </c>
-      <c r="O16" s="2">
-        <f t="shared" si="17"/>
+        <v>7.5713830879251187</v>
+      </c>
+      <c r="S16" s="6">
+        <f t="shared" si="1"/>
+        <v>-605</v>
+      </c>
+      <c r="T16" s="6">
+        <f t="shared" si="2"/>
+        <v>462</v>
+      </c>
+      <c r="U16" s="2">
+        <f t="shared" si="22"/>
         <v>128.36594392033257</v>
       </c>
-      <c r="P16" s="9">
-        <f>(SQRT(L16*L16+M16*M16))/(C16-C15)*(P$1)</f>
+      <c r="V16">
+        <f t="shared" si="23"/>
+        <v>240</v>
+      </c>
+      <c r="W16" s="3">
+        <f t="shared" si="24"/>
         <v>7.5713830879251187</v>
       </c>
-      <c r="S16" s="6">
-        <f>ROUND(K16,0)</f>
-        <v>-605</v>
-      </c>
-      <c r="T16" s="6">
-        <f>ROUND(J16,0)</f>
-        <v>462</v>
-      </c>
-      <c r="U16" s="2">
-        <f t="shared" si="18"/>
-        <v>128.36594392033257</v>
-      </c>
-      <c r="V16">
-        <f t="shared" si="19"/>
-        <v>240</v>
-      </c>
-      <c r="W16" s="3">
-        <f t="shared" si="20"/>
-        <v>7.5713830879251187</v>
-      </c>
       <c r="X16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>240</v>
       </c>
     </row>
@@ -2917,67 +2975,67 @@
         <v>307.14999999999998</v>
       </c>
       <c r="G17">
-        <f>+J$3*L$3*(C17-C$6)/M$3+K$3</f>
+        <f t="shared" si="7"/>
         <v>264</v>
       </c>
       <c r="H17" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>17.5</v>
       </c>
       <c r="I17" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>307.14999999999998</v>
       </c>
       <c r="J17" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>505.64925675014427</v>
       </c>
       <c r="K17" s="6">
+        <f t="shared" si="17"/>
+        <v>-667.37683533590393</v>
+      </c>
+      <c r="L17" s="6">
+        <f t="shared" si="18"/>
+        <v>43.641923995162131</v>
+      </c>
+      <c r="M17" s="6">
+        <f t="shared" si="19"/>
+        <v>-62.440138411041858</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="20"/>
+        <v>-55.048752441636232</v>
+      </c>
+      <c r="O17" s="2">
+        <f t="shared" si="21"/>
+        <v>124.95124755836378</v>
+      </c>
+      <c r="P17" s="9">
         <f t="shared" si="13"/>
-        <v>-667.37683533590393</v>
-      </c>
-      <c r="L17" s="6">
-        <f t="shared" si="14"/>
-        <v>43.641923995162131</v>
-      </c>
-      <c r="M17" s="6">
-        <f t="shared" si="15"/>
-        <v>-62.440138411041858</v>
-      </c>
-      <c r="N17">
-        <f t="shared" si="16"/>
-        <v>-55.048752441636232</v>
-      </c>
-      <c r="O17" s="2">
-        <f t="shared" si="17"/>
+        <v>7.6179973843455553</v>
+      </c>
+      <c r="S17" s="6">
+        <f t="shared" si="1"/>
+        <v>-667</v>
+      </c>
+      <c r="T17" s="6">
+        <f t="shared" si="2"/>
+        <v>506</v>
+      </c>
+      <c r="U17" s="2">
+        <f t="shared" si="22"/>
         <v>124.95124755836378</v>
       </c>
-      <c r="P17" s="9">
-        <f>(SQRT(L17*L17+M17*M17))/(C17-C16)*(P$1)</f>
+      <c r="V17">
+        <f t="shared" si="23"/>
+        <v>264</v>
+      </c>
+      <c r="W17" s="3">
+        <f t="shared" si="24"/>
         <v>7.6179973843455553</v>
       </c>
-      <c r="S17" s="6">
-        <f>ROUND(K17,0)</f>
-        <v>-667</v>
-      </c>
-      <c r="T17" s="6">
-        <f>ROUND(J17,0)</f>
-        <v>506</v>
-      </c>
-      <c r="U17" s="2">
-        <f t="shared" si="18"/>
-        <v>124.95124755836378</v>
-      </c>
-      <c r="V17">
-        <f t="shared" si="19"/>
-        <v>264</v>
-      </c>
-      <c r="W17" s="3">
-        <f t="shared" si="20"/>
-        <v>7.6179973843455553</v>
-      </c>
       <c r="X17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>264</v>
       </c>
     </row>
@@ -2998,67 +3056,67 @@
         <v>307.11</v>
       </c>
       <c r="G18">
-        <f>+J$3*L$3*(C18-C$6)/M$3+K$3</f>
+        <f t="shared" si="7"/>
         <v>288</v>
       </c>
       <c r="H18" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>17.850000000000001</v>
       </c>
       <c r="I18" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>307.11</v>
       </c>
       <c r="J18" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>539.59318636149237</v>
       </c>
       <c r="K18" s="6">
+        <f t="shared" si="17"/>
+        <v>-713.21131643439492</v>
+      </c>
+      <c r="L18" s="6">
+        <f t="shared" si="18"/>
+        <v>33.943929611348096</v>
+      </c>
+      <c r="M18" s="6">
+        <f t="shared" si="19"/>
+        <v>-45.834481098490983</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="20"/>
+        <v>-53.477229437774994</v>
+      </c>
+      <c r="O18" s="2">
+        <f t="shared" si="21"/>
+        <v>126.52277056222501</v>
+      </c>
+      <c r="P18" s="9">
         <f t="shared" si="13"/>
-        <v>-713.21131643439492</v>
-      </c>
-      <c r="L18" s="6">
-        <f t="shared" si="14"/>
-        <v>33.943929611348096</v>
-      </c>
-      <c r="M18" s="6">
-        <f t="shared" si="15"/>
-        <v>-45.834481098490983</v>
-      </c>
-      <c r="N18">
-        <f t="shared" si="16"/>
-        <v>-53.477229437774994</v>
-      </c>
-      <c r="O18" s="2">
-        <f t="shared" si="17"/>
+        <v>5.7034989392723485</v>
+      </c>
+      <c r="S18" s="6">
+        <f t="shared" si="1"/>
+        <v>-713</v>
+      </c>
+      <c r="T18" s="6">
+        <f t="shared" si="2"/>
+        <v>540</v>
+      </c>
+      <c r="U18" s="2">
+        <f t="shared" si="22"/>
         <v>126.52277056222501</v>
       </c>
-      <c r="P18" s="9">
-        <f>(SQRT(L18*L18+M18*M18))/(C18-C17)*(P$1)</f>
+      <c r="V18">
+        <f t="shared" si="23"/>
+        <v>288</v>
+      </c>
+      <c r="W18" s="3">
+        <f t="shared" si="24"/>
         <v>5.7034989392723485</v>
       </c>
-      <c r="S18" s="6">
-        <f>ROUND(K18,0)</f>
-        <v>-713</v>
-      </c>
-      <c r="T18" s="6">
-        <f>ROUND(J18,0)</f>
-        <v>540</v>
-      </c>
-      <c r="U18" s="2">
-        <f t="shared" si="18"/>
-        <v>126.52277056222501</v>
-      </c>
-      <c r="V18">
-        <f t="shared" si="19"/>
-        <v>288</v>
-      </c>
-      <c r="W18" s="3">
-        <f t="shared" si="20"/>
-        <v>5.7034989392723485</v>
-      </c>
       <c r="X18">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>288</v>
       </c>
     </row>
@@ -3079,67 +3137,67 @@
         <v>306.58999999999997</v>
       </c>
       <c r="G19">
-        <f>+J$3*L$3*(C19-C$6)/M$3+K$3</f>
+        <f t="shared" si="7"/>
         <v>312</v>
       </c>
       <c r="H19" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>18.32</v>
       </c>
       <c r="I19" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>306.58999999999997</v>
       </c>
       <c r="J19" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>561.68908716234955</v>
       </c>
       <c r="K19" s="6">
+        <f t="shared" si="17"/>
+        <v>-756.59083619880573</v>
+      </c>
+      <c r="L19" s="6">
+        <f t="shared" si="18"/>
+        <v>22.09590080085718</v>
+      </c>
+      <c r="M19" s="6">
+        <f t="shared" si="19"/>
+        <v>-43.379519764410816</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="20"/>
+        <v>-63.007412349920116</v>
+      </c>
+      <c r="O19" s="2">
+        <f t="shared" si="21"/>
+        <v>116.99258765007988</v>
+      </c>
+      <c r="P19" s="9">
         <f t="shared" si="13"/>
-        <v>-756.59083619880573</v>
-      </c>
-      <c r="L19" s="6">
-        <f t="shared" si="14"/>
-        <v>22.09590080085718</v>
-      </c>
-      <c r="M19" s="6">
-        <f t="shared" si="15"/>
-        <v>-43.379519764410816</v>
-      </c>
-      <c r="N19">
-        <f t="shared" si="16"/>
-        <v>-63.007412349920116</v>
-      </c>
-      <c r="O19" s="2">
-        <f t="shared" si="17"/>
+        <v>4.8682764580416231</v>
+      </c>
+      <c r="S19" s="6">
+        <f t="shared" si="1"/>
+        <v>-757</v>
+      </c>
+      <c r="T19" s="6">
+        <f t="shared" si="2"/>
+        <v>562</v>
+      </c>
+      <c r="U19" s="2">
+        <f t="shared" si="22"/>
         <v>116.99258765007988</v>
       </c>
-      <c r="P19" s="9">
-        <f>(SQRT(L19*L19+M19*M19))/(C19-C18)*(P$1)</f>
+      <c r="V19">
+        <f t="shared" si="23"/>
+        <v>312</v>
+      </c>
+      <c r="W19" s="3">
+        <f t="shared" si="24"/>
         <v>4.8682764580416231</v>
       </c>
-      <c r="S19" s="6">
-        <f>ROUND(K19,0)</f>
-        <v>-757</v>
-      </c>
-      <c r="T19" s="6">
-        <f>ROUND(J19,0)</f>
-        <v>562</v>
-      </c>
-      <c r="U19" s="2">
-        <f t="shared" si="18"/>
-        <v>116.99258765007988</v>
-      </c>
-      <c r="V19">
-        <f t="shared" si="19"/>
-        <v>312</v>
-      </c>
-      <c r="W19" s="3">
-        <f t="shared" si="20"/>
-        <v>4.8682764580416231</v>
-      </c>
       <c r="X19">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>312</v>
       </c>
     </row>
@@ -3160,67 +3218,67 @@
         <v>306.20999999999998</v>
       </c>
       <c r="G20">
-        <f>+J$3*L$3*(C20-C$6)/M$3+K$3</f>
+        <f t="shared" si="7"/>
         <v>336</v>
       </c>
       <c r="H20" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>18.7</v>
       </c>
       <c r="I20" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>306.20999999999998</v>
       </c>
       <c r="J20" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>586.41587826386672</v>
       </c>
       <c r="K20" s="6">
+        <f t="shared" si="17"/>
+        <v>-800.94234214017331</v>
+      </c>
+      <c r="L20" s="6">
+        <f t="shared" si="18"/>
+        <v>24.726791101517165</v>
+      </c>
+      <c r="M20" s="6">
+        <f t="shared" si="19"/>
+        <v>-44.351505941367577</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="20"/>
+        <v>-60.859518716493</v>
+      </c>
+      <c r="O20" s="2">
+        <f t="shared" si="21"/>
+        <v>119.140481283507</v>
+      </c>
+      <c r="P20" s="9">
         <f t="shared" si="13"/>
-        <v>-800.94234214017331</v>
-      </c>
-      <c r="L20" s="6">
-        <f t="shared" si="14"/>
-        <v>24.726791101517165</v>
-      </c>
-      <c r="M20" s="6">
-        <f t="shared" si="15"/>
-        <v>-44.351505941367577</v>
-      </c>
-      <c r="N20">
-        <f t="shared" si="16"/>
-        <v>-60.859518716493</v>
-      </c>
-      <c r="O20" s="2">
-        <f t="shared" si="17"/>
+        <v>5.0778639972386346</v>
+      </c>
+      <c r="S20" s="6">
+        <f t="shared" si="1"/>
+        <v>-801</v>
+      </c>
+      <c r="T20" s="6">
+        <f t="shared" si="2"/>
+        <v>586</v>
+      </c>
+      <c r="U20" s="2">
+        <f t="shared" si="22"/>
         <v>119.140481283507</v>
       </c>
-      <c r="P20" s="9">
-        <f>(SQRT(L20*L20+M20*M20))/(C20-C19)*(P$1)</f>
+      <c r="V20">
+        <f t="shared" si="23"/>
+        <v>336</v>
+      </c>
+      <c r="W20" s="3">
+        <f t="shared" si="24"/>
         <v>5.0778639972386346</v>
       </c>
-      <c r="S20" s="6">
-        <f>ROUND(K20,0)</f>
-        <v>-801</v>
-      </c>
-      <c r="T20" s="6">
-        <f>ROUND(J20,0)</f>
-        <v>586</v>
-      </c>
-      <c r="U20" s="2">
-        <f t="shared" si="18"/>
-        <v>119.140481283507</v>
-      </c>
-      <c r="V20">
-        <f t="shared" si="19"/>
-        <v>336</v>
-      </c>
-      <c r="W20" s="3">
-        <f t="shared" si="20"/>
-        <v>5.0778639972386346</v>
-      </c>
       <c r="X20">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>336</v>
       </c>
     </row>
@@ -3241,67 +3299,67 @@
         <v>305.58999999999997</v>
       </c>
       <c r="G21">
-        <f>+J$3*L$3*(C21-C$6)/M$3+K$3</f>
+        <f t="shared" si="7"/>
         <v>360</v>
       </c>
       <c r="H21" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>19</v>
       </c>
       <c r="I21" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>305.58999999999997</v>
       </c>
       <c r="J21" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>608.47044893037275</v>
       </c>
       <c r="K21" s="6">
+        <f t="shared" si="17"/>
+        <v>-850.21599803287711</v>
+      </c>
+      <c r="L21" s="6">
+        <f t="shared" si="18"/>
+        <v>22.054570666506038</v>
+      </c>
+      <c r="M21" s="6">
+        <f t="shared" si="19"/>
+        <v>-49.2736558927038</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="20"/>
+        <v>-65.887018425169529</v>
+      </c>
+      <c r="O21" s="2">
+        <f t="shared" si="21"/>
+        <v>114.11298157483047</v>
+      </c>
+      <c r="P21" s="9">
         <f t="shared" si="13"/>
-        <v>-850.21599803287711</v>
-      </c>
-      <c r="L21" s="6">
-        <f t="shared" si="14"/>
-        <v>22.054570666506038</v>
-      </c>
-      <c r="M21" s="6">
-        <f t="shared" si="15"/>
-        <v>-49.2736558927038</v>
-      </c>
-      <c r="N21">
-        <f t="shared" si="16"/>
-        <v>-65.887018425169529</v>
-      </c>
-      <c r="O21" s="2">
-        <f t="shared" si="17"/>
+        <v>5.3984231515475818</v>
+      </c>
+      <c r="S21" s="6">
+        <f t="shared" si="1"/>
+        <v>-850</v>
+      </c>
+      <c r="T21" s="6">
+        <f t="shared" si="2"/>
+        <v>608</v>
+      </c>
+      <c r="U21" s="2">
+        <f t="shared" si="22"/>
         <v>114.11298157483047</v>
       </c>
-      <c r="P21" s="9">
-        <f>(SQRT(L21*L21+M21*M21))/(C21-C20)*(P$1)</f>
+      <c r="V21">
+        <f t="shared" si="23"/>
+        <v>360</v>
+      </c>
+      <c r="W21" s="3">
+        <f t="shared" si="24"/>
         <v>5.3984231515475818</v>
       </c>
-      <c r="S21" s="6">
-        <f>ROUND(K21,0)</f>
-        <v>-850</v>
-      </c>
-      <c r="T21" s="6">
-        <f>ROUND(J21,0)</f>
-        <v>608</v>
-      </c>
-      <c r="U21" s="2">
-        <f t="shared" si="18"/>
-        <v>114.11298157483047</v>
-      </c>
-      <c r="V21">
-        <f t="shared" si="19"/>
-        <v>360</v>
-      </c>
-      <c r="W21" s="3">
-        <f t="shared" si="20"/>
-        <v>5.3984231515475818</v>
-      </c>
       <c r="X21">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>360</v>
       </c>
     </row>
@@ -3322,67 +3380,67 @@
         <v>304.58</v>
       </c>
       <c r="G22">
-        <f>+J$3*L$3*(C22-C$6)/M$3+K$3</f>
+        <f t="shared" si="7"/>
         <v>384</v>
       </c>
       <c r="H22" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>19.190000000000001</v>
       </c>
       <c r="I22" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>304.58</v>
       </c>
       <c r="J22" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>626.195051417321</v>
       </c>
       <c r="K22" s="6">
+        <f t="shared" si="17"/>
+        <v>-908.39963575482921</v>
+      </c>
+      <c r="L22" s="6">
+        <f t="shared" si="18"/>
+        <v>17.724602486948243</v>
+      </c>
+      <c r="M22" s="6">
+        <f t="shared" si="19"/>
+        <v>-58.183637721952095</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="20"/>
+        <v>-73.05758234536512</v>
+      </c>
+      <c r="O22" s="2">
+        <f t="shared" si="21"/>
+        <v>106.94241765463488</v>
+      </c>
+      <c r="P22" s="9">
         <f t="shared" si="13"/>
-        <v>-908.39963575482921</v>
-      </c>
-      <c r="L22" s="6">
-        <f t="shared" si="14"/>
-        <v>17.724602486948243</v>
-      </c>
-      <c r="M22" s="6">
-        <f t="shared" si="15"/>
-        <v>-58.183637721952095</v>
-      </c>
-      <c r="N22">
-        <f t="shared" si="16"/>
-        <v>-73.05758234536512</v>
-      </c>
-      <c r="O22" s="2">
-        <f t="shared" si="17"/>
+        <v>6.0823492434089141</v>
+      </c>
+      <c r="S22" s="6">
+        <f t="shared" si="1"/>
+        <v>-908</v>
+      </c>
+      <c r="T22" s="6">
+        <f t="shared" si="2"/>
+        <v>626</v>
+      </c>
+      <c r="U22" s="2">
+        <f t="shared" si="22"/>
         <v>106.94241765463488</v>
       </c>
-      <c r="P22" s="9">
-        <f>(SQRT(L22*L22+M22*M22))/(C22-C21)*(P$1)</f>
+      <c r="V22">
+        <f t="shared" si="23"/>
+        <v>384</v>
+      </c>
+      <c r="W22" s="3">
+        <f t="shared" si="24"/>
         <v>6.0823492434089141</v>
       </c>
-      <c r="S22" s="6">
-        <f>ROUND(K22,0)</f>
-        <v>-908</v>
-      </c>
-      <c r="T22" s="6">
-        <f>ROUND(J22,0)</f>
-        <v>626</v>
-      </c>
-      <c r="U22" s="2">
-        <f t="shared" si="18"/>
-        <v>106.94241765463488</v>
-      </c>
-      <c r="V22">
-        <f t="shared" si="19"/>
-        <v>384</v>
-      </c>
-      <c r="W22" s="3">
-        <f t="shared" si="20"/>
-        <v>6.0823492434089141</v>
-      </c>
       <c r="X22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>384</v>
       </c>
     </row>
@@ -3403,67 +3461,67 @@
         <v>303.91000000000003</v>
       </c>
       <c r="G23">
-        <f>+J$3*L$3*(C23-C$6)/M$3+K$3</f>
+        <f t="shared" si="7"/>
         <v>408</v>
       </c>
       <c r="H23" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>19.38</v>
       </c>
       <c r="I23" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>303.91000000000003</v>
       </c>
       <c r="J23" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>647.08034129201417</v>
       </c>
       <c r="K23" s="6">
+        <f t="shared" si="17"/>
+        <v>-962.59418219997235</v>
+      </c>
+      <c r="L23" s="6">
+        <f t="shared" si="18"/>
+        <v>20.885289874693171</v>
+      </c>
+      <c r="M23" s="6">
+        <f t="shared" si="19"/>
+        <v>-54.194546445143146</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="20"/>
+        <v>-68.924523224572681</v>
+      </c>
+      <c r="O23" s="2">
+        <f t="shared" si="21"/>
+        <v>111.07547677542732</v>
+      </c>
+      <c r="P23" s="9">
         <f t="shared" si="13"/>
-        <v>-962.59418219997235</v>
-      </c>
-      <c r="L23" s="6">
-        <f t="shared" si="14"/>
-        <v>20.885289874693171</v>
-      </c>
-      <c r="M23" s="6">
-        <f t="shared" si="15"/>
-        <v>-54.194546445143146</v>
-      </c>
-      <c r="N23">
-        <f t="shared" si="16"/>
-        <v>-68.924523224572681</v>
-      </c>
-      <c r="O23" s="2">
-        <f t="shared" si="17"/>
+        <v>5.807963668571575</v>
+      </c>
+      <c r="S23" s="6">
+        <f t="shared" si="1"/>
+        <v>-963</v>
+      </c>
+      <c r="T23" s="6">
+        <f t="shared" si="2"/>
+        <v>647</v>
+      </c>
+      <c r="U23" s="2">
+        <f t="shared" si="22"/>
         <v>111.07547677542732</v>
       </c>
-      <c r="P23" s="9">
-        <f>(SQRT(L23*L23+M23*M23))/(C23-C22)*(P$1)</f>
+      <c r="V23">
+        <f t="shared" si="23"/>
+        <v>408</v>
+      </c>
+      <c r="W23" s="3">
+        <f t="shared" si="24"/>
         <v>5.807963668571575</v>
       </c>
-      <c r="S23" s="6">
-        <f>ROUND(K23,0)</f>
-        <v>-963</v>
-      </c>
-      <c r="T23" s="6">
-        <f>ROUND(J23,0)</f>
-        <v>647</v>
-      </c>
-      <c r="U23" s="2">
-        <f t="shared" si="18"/>
-        <v>111.07547677542732</v>
-      </c>
-      <c r="V23">
-        <f t="shared" si="19"/>
-        <v>408</v>
-      </c>
-      <c r="W23" s="3">
-        <f t="shared" si="20"/>
-        <v>5.807963668571575</v>
-      </c>
       <c r="X23">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>408</v>
       </c>
     </row>
@@ -3484,67 +3542,67 @@
         <v>303.5</v>
       </c>
       <c r="G24">
-        <f>+J$3*L$3*(C24-C$6)/M$3+K$3</f>
+        <f t="shared" si="7"/>
         <v>432</v>
       </c>
       <c r="H24" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>19.63</v>
       </c>
       <c r="I24" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>303.5</v>
       </c>
       <c r="J24" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>668.50043185733068</v>
       </c>
       <c r="K24" s="6">
+        <f t="shared" si="17"/>
+        <v>-1009.9939793968156</v>
+      </c>
+      <c r="L24" s="6">
+        <f t="shared" si="18"/>
+        <v>21.420090565316514</v>
+      </c>
+      <c r="M24" s="6">
+        <f t="shared" si="19"/>
+        <v>-47.399797196843224</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="20"/>
+        <v>-65.681666690758178</v>
+      </c>
+      <c r="O24" s="2">
+        <f t="shared" si="21"/>
+        <v>114.31833330924182</v>
+      </c>
+      <c r="P24" s="9">
         <f t="shared" si="13"/>
-        <v>-1009.9939793968156</v>
-      </c>
-      <c r="L24" s="6">
-        <f t="shared" si="14"/>
-        <v>21.420090565316514</v>
-      </c>
-      <c r="M24" s="6">
-        <f t="shared" si="15"/>
-        <v>-47.399797196843224</v>
-      </c>
-      <c r="N24">
-        <f t="shared" si="16"/>
-        <v>-65.681666690758178</v>
-      </c>
-      <c r="O24" s="2">
-        <f t="shared" si="17"/>
+        <v>5.2015007970087135</v>
+      </c>
+      <c r="S24" s="6">
+        <f t="shared" si="1"/>
+        <v>-1010</v>
+      </c>
+      <c r="T24" s="6">
+        <f t="shared" si="2"/>
+        <v>669</v>
+      </c>
+      <c r="U24" s="2">
+        <f t="shared" si="22"/>
         <v>114.31833330924182</v>
       </c>
-      <c r="P24" s="9">
-        <f>(SQRT(L24*L24+M24*M24))/(C24-C23)*(P$1)</f>
+      <c r="V24">
+        <f t="shared" si="23"/>
+        <v>432</v>
+      </c>
+      <c r="W24" s="3">
+        <f t="shared" si="24"/>
         <v>5.2015007970087135</v>
       </c>
-      <c r="S24" s="6">
-        <f>ROUND(K24,0)</f>
-        <v>-1010</v>
-      </c>
-      <c r="T24" s="6">
-        <f>ROUND(J24,0)</f>
-        <v>669</v>
-      </c>
-      <c r="U24" s="2">
-        <f t="shared" si="18"/>
-        <v>114.31833330924182</v>
-      </c>
-      <c r="V24">
-        <f t="shared" si="19"/>
-        <v>432</v>
-      </c>
-      <c r="W24" s="3">
-        <f t="shared" si="20"/>
-        <v>5.2015007970087135</v>
-      </c>
       <c r="X24">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>432</v>
       </c>
     </row>
@@ -3565,67 +3623,67 @@
         <v>303.06</v>
       </c>
       <c r="G25">
-        <f>+J$3*L$3*(C25-C$6)/M$3+K$3</f>
+        <f t="shared" si="7"/>
         <v>456</v>
       </c>
       <c r="H25" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>19.75</v>
       </c>
       <c r="I25" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>303.06</v>
       </c>
       <c r="J25" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>692.8421432530306</v>
       </c>
       <c r="K25" s="6">
+        <f t="shared" si="17"/>
+        <v>-1064.441341119948</v>
+      </c>
+      <c r="L25" s="6">
+        <f t="shared" si="18"/>
+        <v>24.341711395699917</v>
+      </c>
+      <c r="M25" s="6">
+        <f t="shared" si="19"/>
+        <v>-54.447361723132417</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="20"/>
+        <v>-65.912075921378801</v>
+      </c>
+      <c r="O25" s="2">
+        <f t="shared" si="21"/>
+        <v>114.0879240786212</v>
+      </c>
+      <c r="P25" s="9">
         <f t="shared" si="13"/>
-        <v>-1064.441341119948</v>
-      </c>
-      <c r="L25" s="6">
-        <f t="shared" si="14"/>
-        <v>24.341711395699917</v>
-      </c>
-      <c r="M25" s="6">
-        <f t="shared" si="15"/>
-        <v>-54.447361723132417</v>
-      </c>
-      <c r="N25">
-        <f t="shared" si="16"/>
-        <v>-65.912075921378801</v>
-      </c>
-      <c r="O25" s="2">
-        <f t="shared" si="17"/>
+        <v>5.9640876186397298</v>
+      </c>
+      <c r="S25" s="6">
+        <f t="shared" si="1"/>
+        <v>-1064</v>
+      </c>
+      <c r="T25" s="6">
+        <f t="shared" si="2"/>
+        <v>693</v>
+      </c>
+      <c r="U25" s="2">
+        <f t="shared" si="22"/>
         <v>114.0879240786212</v>
       </c>
-      <c r="P25" s="9">
-        <f>(SQRT(L25*L25+M25*M25))/(C25-C24)*(P$1)</f>
+      <c r="V25">
+        <f t="shared" si="23"/>
+        <v>456</v>
+      </c>
+      <c r="W25" s="3">
+        <f t="shared" si="24"/>
         <v>5.9640876186397298</v>
       </c>
-      <c r="S25" s="6">
-        <f>ROUND(K25,0)</f>
-        <v>-1064</v>
-      </c>
-      <c r="T25" s="6">
-        <f>ROUND(J25,0)</f>
-        <v>693</v>
-      </c>
-      <c r="U25" s="2">
-        <f t="shared" si="18"/>
-        <v>114.0879240786212</v>
-      </c>
-      <c r="V25">
-        <f t="shared" si="19"/>
-        <v>456</v>
-      </c>
-      <c r="W25" s="3">
-        <f t="shared" si="20"/>
-        <v>5.9640876186397298</v>
-      </c>
       <c r="X25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>456</v>
       </c>
     </row>
@@ -3646,67 +3704,67 @@
         <v>302.66000000000003</v>
       </c>
       <c r="G26">
-        <f>+J$3*L$3*(C26-C$6)/M$3+K$3</f>
+        <f t="shared" si="7"/>
         <v>480</v>
       </c>
       <c r="H26" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>20.059999999999999</v>
       </c>
       <c r="I26" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>302.66000000000003</v>
       </c>
       <c r="J26" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>709.37589439928297</v>
       </c>
       <c r="K26" s="6">
+        <f t="shared" si="17"/>
+        <v>-1106.6651971323745</v>
+      </c>
+      <c r="L26" s="6">
+        <f t="shared" si="18"/>
+        <v>16.533751146252371</v>
+      </c>
+      <c r="M26" s="6">
+        <f t="shared" si="19"/>
+        <v>-42.223856012426495</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="20"/>
+        <v>-68.615995925186795</v>
+      </c>
+      <c r="O26" s="2">
+        <f t="shared" si="21"/>
+        <v>111.38400407481321</v>
+      </c>
+      <c r="P26" s="9">
         <f t="shared" si="13"/>
-        <v>-1106.6651971323745</v>
-      </c>
-      <c r="L26" s="6">
-        <f t="shared" si="14"/>
-        <v>16.533751146252371</v>
-      </c>
-      <c r="M26" s="6">
-        <f t="shared" si="15"/>
-        <v>-42.223856012426495</v>
-      </c>
-      <c r="N26">
-        <f t="shared" si="16"/>
-        <v>-68.615995925186795</v>
-      </c>
-      <c r="O26" s="2">
-        <f t="shared" si="17"/>
+        <v>4.5345550426963914</v>
+      </c>
+      <c r="S26" s="6">
+        <f t="shared" si="1"/>
+        <v>-1107</v>
+      </c>
+      <c r="T26" s="6">
+        <f t="shared" si="2"/>
+        <v>709</v>
+      </c>
+      <c r="U26" s="2">
+        <f t="shared" si="22"/>
         <v>111.38400407481321</v>
       </c>
-      <c r="P26" s="9">
-        <f>(SQRT(L26*L26+M26*M26))/(C26-C25)*(P$1)</f>
+      <c r="V26">
+        <f t="shared" si="23"/>
+        <v>480</v>
+      </c>
+      <c r="W26" s="3">
+        <f t="shared" si="24"/>
         <v>4.5345550426963914</v>
       </c>
-      <c r="S26" s="6">
-        <f>ROUND(K26,0)</f>
-        <v>-1107</v>
-      </c>
-      <c r="T26" s="6">
-        <f>ROUND(J26,0)</f>
-        <v>709</v>
-      </c>
-      <c r="U26" s="2">
-        <f t="shared" si="18"/>
-        <v>111.38400407481321</v>
-      </c>
-      <c r="V26">
-        <f t="shared" si="19"/>
-        <v>480</v>
-      </c>
-      <c r="W26" s="3">
-        <f t="shared" si="20"/>
-        <v>4.5345550426963914</v>
-      </c>
       <c r="X26">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>480</v>
       </c>
     </row>
@@ -3727,67 +3785,67 @@
         <v>302.11</v>
       </c>
       <c r="G27">
-        <f>+J$3*L$3*(C27-C$6)/M$3+K$3</f>
+        <f t="shared" si="7"/>
         <v>504</v>
       </c>
       <c r="H27" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>20.18</v>
       </c>
       <c r="I27" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>302.11</v>
       </c>
       <c r="J27" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>728.91429809403462</v>
       </c>
       <c r="K27" s="6">
+        <f t="shared" si="17"/>
+        <v>-1161.5385625328493</v>
+      </c>
+      <c r="L27" s="6">
+        <f t="shared" si="18"/>
+        <v>19.538403694751651</v>
+      </c>
+      <c r="M27" s="6">
+        <f t="shared" si="19"/>
+        <v>-54.873365400474768</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="20"/>
+        <v>-70.401040452259963</v>
+      </c>
+      <c r="O27" s="2">
+        <f t="shared" si="21"/>
+        <v>109.59895954774004</v>
+      </c>
+      <c r="P27" s="9">
         <f t="shared" si="13"/>
-        <v>-1161.5385625328493</v>
-      </c>
-      <c r="L27" s="6">
-        <f t="shared" si="14"/>
-        <v>19.538403694751651</v>
-      </c>
-      <c r="M27" s="6">
-        <f t="shared" si="15"/>
-        <v>-54.873365400474768</v>
-      </c>
-      <c r="N27">
-        <f t="shared" si="16"/>
-        <v>-70.401040452259963</v>
-      </c>
-      <c r="O27" s="2">
-        <f t="shared" si="17"/>
+        <v>5.8248051034460424</v>
+      </c>
+      <c r="S27" s="6">
+        <f t="shared" si="1"/>
+        <v>-1162</v>
+      </c>
+      <c r="T27" s="6">
+        <f t="shared" si="2"/>
+        <v>729</v>
+      </c>
+      <c r="U27" s="2">
+        <f t="shared" si="22"/>
         <v>109.59895954774004</v>
       </c>
-      <c r="P27" s="9">
-        <f>(SQRT(L27*L27+M27*M27))/(C27-C26)*(P$1)</f>
+      <c r="V27">
+        <f t="shared" si="23"/>
+        <v>504</v>
+      </c>
+      <c r="W27" s="3">
+        <f t="shared" si="24"/>
         <v>5.8248051034460424</v>
       </c>
-      <c r="S27" s="6">
-        <f>ROUND(K27,0)</f>
-        <v>-1162</v>
-      </c>
-      <c r="T27" s="6">
-        <f>ROUND(J27,0)</f>
-        <v>729</v>
-      </c>
-      <c r="U27" s="2">
-        <f t="shared" si="18"/>
-        <v>109.59895954774004</v>
-      </c>
-      <c r="V27">
-        <f t="shared" si="19"/>
-        <v>504</v>
-      </c>
-      <c r="W27" s="3">
-        <f t="shared" si="20"/>
-        <v>5.8248051034460424</v>
-      </c>
       <c r="X27">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>504</v>
       </c>
     </row>
@@ -3808,67 +3866,67 @@
         <v>301.42</v>
       </c>
       <c r="G28">
-        <f>+J$3*L$3*(C28-C$6)/M$3+K$3</f>
+        <f t="shared" si="7"/>
         <v>528</v>
       </c>
       <c r="H28" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>20.21</v>
       </c>
       <c r="I28" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>301.42</v>
       </c>
       <c r="J28" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>747.70590980183636</v>
       </c>
       <c r="K28" s="6">
+        <f t="shared" si="17"/>
+        <v>-1223.9779747095467</v>
+      </c>
+      <c r="L28" s="6">
+        <f t="shared" si="18"/>
+        <v>18.791611707801735</v>
+      </c>
+      <c r="M28" s="6">
+        <f t="shared" si="19"/>
+        <v>-62.439412176697488</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="20"/>
+        <v>-73.250436163599431</v>
+      </c>
+      <c r="O28" s="2">
+        <f t="shared" si="21"/>
+        <v>106.74956383640057</v>
+      </c>
+      <c r="P28" s="9">
         <f t="shared" si="13"/>
-        <v>-1223.9779747095467</v>
-      </c>
-      <c r="L28" s="6">
-        <f t="shared" si="14"/>
-        <v>18.791611707801735</v>
-      </c>
-      <c r="M28" s="6">
-        <f t="shared" si="15"/>
-        <v>-62.439412176697488</v>
-      </c>
-      <c r="N28">
-        <f t="shared" si="16"/>
-        <v>-73.250436163599431</v>
-      </c>
-      <c r="O28" s="2">
-        <f t="shared" si="17"/>
+        <v>6.5205865254195574</v>
+      </c>
+      <c r="S28" s="6">
+        <f t="shared" si="1"/>
+        <v>-1224</v>
+      </c>
+      <c r="T28" s="6">
+        <f t="shared" si="2"/>
+        <v>748</v>
+      </c>
+      <c r="U28" s="2">
+        <f t="shared" si="22"/>
         <v>106.74956383640057</v>
       </c>
-      <c r="P28" s="9">
-        <f>(SQRT(L28*L28+M28*M28))/(C28-C27)*(P$1)</f>
+      <c r="V28">
+        <f t="shared" si="23"/>
+        <v>528</v>
+      </c>
+      <c r="W28" s="3">
+        <f t="shared" si="24"/>
         <v>6.5205865254195574</v>
       </c>
-      <c r="S28" s="6">
-        <f>ROUND(K28,0)</f>
-        <v>-1224</v>
-      </c>
-      <c r="T28" s="6">
-        <f>ROUND(J28,0)</f>
-        <v>748</v>
-      </c>
-      <c r="U28" s="2">
-        <f t="shared" si="18"/>
-        <v>106.74956383640057</v>
-      </c>
-      <c r="V28">
-        <f t="shared" si="19"/>
-        <v>528</v>
-      </c>
-      <c r="W28" s="3">
-        <f t="shared" si="20"/>
-        <v>6.5205865254195574</v>
-      </c>
       <c r="X28">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>528</v>
       </c>
     </row>
@@ -3889,67 +3947,67 @@
         <v>300.60000000000002</v>
       </c>
       <c r="G29">
-        <f>+J$3*L$3*(C29-C$6)/M$3+K$3</f>
+        <f t="shared" si="7"/>
         <v>552</v>
       </c>
       <c r="H29" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>19.989999999999998</v>
       </c>
       <c r="I29" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>300.60000000000002</v>
       </c>
       <c r="J29" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>772.43549152805588</v>
       </c>
       <c r="K29" s="6">
+        <f t="shared" si="17"/>
+        <v>-1306.1170862248468</v>
+      </c>
+      <c r="L29" s="6">
+        <f t="shared" si="18"/>
+        <v>24.729581726219521</v>
+      </c>
+      <c r="M29" s="6">
+        <f t="shared" si="19"/>
+        <v>-82.139111515300101</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="20"/>
+        <v>-73.244553814505423</v>
+      </c>
+      <c r="O29" s="2">
+        <f t="shared" si="21"/>
+        <v>106.75544618549458</v>
+      </c>
+      <c r="P29" s="9">
         <f t="shared" si="13"/>
-        <v>-1306.1170862248468</v>
-      </c>
-      <c r="L29" s="6">
-        <f t="shared" si="14"/>
-        <v>24.729581726219521</v>
-      </c>
-      <c r="M29" s="6">
-        <f t="shared" si="15"/>
-        <v>-82.139111515300101</v>
-      </c>
-      <c r="N29">
-        <f t="shared" si="16"/>
-        <v>-73.244553814505423</v>
-      </c>
-      <c r="O29" s="2">
-        <f t="shared" si="17"/>
+        <v>8.5781034342543769</v>
+      </c>
+      <c r="S29" s="6">
+        <f t="shared" si="1"/>
+        <v>-1306</v>
+      </c>
+      <c r="T29" s="6">
+        <f t="shared" si="2"/>
+        <v>772</v>
+      </c>
+      <c r="U29" s="2">
+        <f t="shared" si="22"/>
         <v>106.75544618549458</v>
       </c>
-      <c r="P29" s="9">
-        <f>(SQRT(L29*L29+M29*M29))/(C29-C28)*(P$1)</f>
+      <c r="V29">
+        <f t="shared" si="23"/>
+        <v>552</v>
+      </c>
+      <c r="W29" s="3">
+        <f t="shared" si="24"/>
         <v>8.5781034342543769</v>
       </c>
-      <c r="S29" s="6">
-        <f>ROUND(K29,0)</f>
-        <v>-1306</v>
-      </c>
-      <c r="T29" s="6">
-        <f>ROUND(J29,0)</f>
-        <v>772</v>
-      </c>
-      <c r="U29" s="2">
-        <f t="shared" si="18"/>
-        <v>106.75544618549458</v>
-      </c>
-      <c r="V29">
-        <f t="shared" si="19"/>
-        <v>552</v>
-      </c>
-      <c r="W29" s="3">
-        <f t="shared" si="20"/>
-        <v>8.5781034342543769</v>
-      </c>
       <c r="X29">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>552</v>
       </c>
     </row>
@@ -3970,67 +4028,67 @@
         <v>299.8</v>
       </c>
       <c r="G30">
-        <f>+J$3*L$3*(C30-C$6)/M$3+K$3</f>
+        <f t="shared" si="7"/>
         <v>576</v>
       </c>
       <c r="H30" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>19.64</v>
       </c>
       <c r="I30" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>299.8</v>
       </c>
       <c r="J30" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>802.13056719557005</v>
       </c>
       <c r="K30" s="6">
+        <f t="shared" si="17"/>
+        <v>-1400.5989244674865</v>
+      </c>
+      <c r="L30" s="6">
+        <f t="shared" si="18"/>
+        <v>29.695075667514175</v>
+      </c>
+      <c r="M30" s="6">
+        <f t="shared" si="19"/>
+        <v>-94.481838242639697</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="20"/>
+        <v>-72.552379077280136</v>
+      </c>
+      <c r="O30" s="2">
+        <f t="shared" si="21"/>
+        <v>107.44762092271986</v>
+      </c>
+      <c r="P30" s="9">
         <f t="shared" si="13"/>
-        <v>-1400.5989244674865</v>
-      </c>
-      <c r="L30" s="6">
-        <f t="shared" si="14"/>
-        <v>29.695075667514175</v>
-      </c>
-      <c r="M30" s="6">
-        <f t="shared" si="15"/>
-        <v>-94.481838242639697</v>
-      </c>
-      <c r="N30">
-        <f t="shared" si="16"/>
-        <v>-72.552379077280136</v>
-      </c>
-      <c r="O30" s="2">
-        <f t="shared" si="17"/>
+        <v>9.9038453524919952</v>
+      </c>
+      <c r="S30" s="6">
+        <f t="shared" si="1"/>
+        <v>-1401</v>
+      </c>
+      <c r="T30" s="6">
+        <f t="shared" si="2"/>
+        <v>802</v>
+      </c>
+      <c r="U30" s="2">
+        <f t="shared" si="22"/>
         <v>107.44762092271986</v>
       </c>
-      <c r="P30" s="9">
-        <f>(SQRT(L30*L30+M30*M30))/(C30-C29)*(P$1)</f>
+      <c r="V30">
+        <f t="shared" si="23"/>
+        <v>576</v>
+      </c>
+      <c r="W30" s="3">
+        <f t="shared" si="24"/>
         <v>9.9038453524919952</v>
       </c>
-      <c r="S30" s="6">
-        <f>ROUND(K30,0)</f>
-        <v>-1401</v>
-      </c>
-      <c r="T30" s="6">
-        <f>ROUND(J30,0)</f>
-        <v>802</v>
-      </c>
-      <c r="U30" s="2">
-        <f t="shared" si="18"/>
-        <v>107.44762092271986</v>
-      </c>
-      <c r="V30">
-        <f t="shared" si="19"/>
-        <v>576</v>
-      </c>
-      <c r="W30" s="3">
-        <f t="shared" si="20"/>
-        <v>9.9038453524919952</v>
-      </c>
       <c r="X30">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>576</v>
       </c>
     </row>
@@ -4051,67 +4109,67 @@
         <v>299.27</v>
       </c>
       <c r="G31">
-        <f>+J$3*L$3*(C31-C$6)/M$3+K$3</f>
+        <f t="shared" si="7"/>
         <v>600</v>
       </c>
       <c r="H31" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>19.559999999999999</v>
       </c>
       <c r="I31" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>299.27</v>
       </c>
       <c r="J31" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>825.66142599737884</v>
       </c>
       <c r="K31" s="6">
+        <f t="shared" si="17"/>
+        <v>-1473.1181533851409</v>
+      </c>
+      <c r="L31" s="6">
+        <f t="shared" si="18"/>
+        <v>23.53085880180879</v>
+      </c>
+      <c r="M31" s="6">
+        <f t="shared" si="19"/>
+        <v>-72.519228917654345</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="20"/>
+        <v>-72.022919083768272</v>
+      </c>
+      <c r="O31" s="2">
+        <f t="shared" si="21"/>
+        <v>107.97708091623173</v>
+      </c>
+      <c r="P31" s="9">
         <f t="shared" si="13"/>
-        <v>-1473.1181533851409</v>
-      </c>
-      <c r="L31" s="6">
-        <f t="shared" si="14"/>
-        <v>23.53085880180879</v>
-      </c>
-      <c r="M31" s="6">
-        <f t="shared" si="15"/>
-        <v>-72.519228917654345</v>
-      </c>
-      <c r="N31">
-        <f t="shared" si="16"/>
-        <v>-72.022919083768272</v>
-      </c>
-      <c r="O31" s="2">
-        <f t="shared" si="17"/>
+        <v>7.6241326580548279</v>
+      </c>
+      <c r="S31" s="6">
+        <f t="shared" si="1"/>
+        <v>-1473</v>
+      </c>
+      <c r="T31" s="6">
+        <f t="shared" si="2"/>
+        <v>826</v>
+      </c>
+      <c r="U31" s="2">
+        <f t="shared" si="22"/>
         <v>107.97708091623173</v>
       </c>
-      <c r="P31" s="9">
-        <f>(SQRT(L31*L31+M31*M31))/(C31-C30)*(P$1)</f>
+      <c r="V31">
+        <f t="shared" si="23"/>
+        <v>600</v>
+      </c>
+      <c r="W31" s="3">
+        <f t="shared" si="24"/>
         <v>7.6241326580548279</v>
       </c>
-      <c r="S31" s="6">
-        <f>ROUND(K31,0)</f>
-        <v>-1473</v>
-      </c>
-      <c r="T31" s="6">
-        <f>ROUND(J31,0)</f>
-        <v>826</v>
-      </c>
-      <c r="U31" s="2">
-        <f t="shared" si="18"/>
-        <v>107.97708091623173</v>
-      </c>
-      <c r="V31">
-        <f t="shared" si="19"/>
-        <v>600</v>
-      </c>
-      <c r="W31" s="3">
-        <f t="shared" si="20"/>
-        <v>7.6241326580548279</v>
-      </c>
       <c r="X31">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>600</v>
       </c>
     </row>
@@ -4132,67 +4190,67 @@
         <v>298.57</v>
       </c>
       <c r="G32">
-        <f>+J$3*L$3*(C32-C$6)/M$3+K$3</f>
+        <f t="shared" si="7"/>
         <v>624</v>
       </c>
       <c r="H32" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>19.190000000000001</v>
       </c>
       <c r="I32" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>298.57</v>
       </c>
       <c r="J32" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>857.41818858245085</v>
       </c>
       <c r="K32" s="6">
+        <f t="shared" si="17"/>
+        <v>-1574.5772893274523</v>
+      </c>
+      <c r="L32" s="6">
+        <f t="shared" si="18"/>
+        <v>31.756762585072011</v>
+      </c>
+      <c r="M32" s="6">
+        <f t="shared" si="19"/>
+        <v>-101.45913594231138</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="20"/>
+        <v>-72.619852657554219</v>
+      </c>
+      <c r="O32" s="2">
+        <f t="shared" si="21"/>
+        <v>107.38014734244578</v>
+      </c>
+      <c r="P32" s="9">
         <f t="shared" si="13"/>
-        <v>-1574.5772893274523</v>
-      </c>
-      <c r="L32" s="6">
-        <f t="shared" si="14"/>
-        <v>31.756762585072011</v>
-      </c>
-      <c r="M32" s="6">
-        <f t="shared" si="15"/>
-        <v>-101.45913594231138</v>
-      </c>
-      <c r="N32">
-        <f t="shared" si="16"/>
-        <v>-72.619852657554219</v>
-      </c>
-      <c r="O32" s="2">
-        <f t="shared" si="17"/>
+        <v>10.631297303737231</v>
+      </c>
+      <c r="S32" s="6">
+        <f t="shared" si="1"/>
+        <v>-1575</v>
+      </c>
+      <c r="T32" s="6">
+        <f t="shared" si="2"/>
+        <v>857</v>
+      </c>
+      <c r="U32" s="2">
+        <f t="shared" si="22"/>
         <v>107.38014734244578</v>
       </c>
-      <c r="P32" s="9">
-        <f>(SQRT(L32*L32+M32*M32))/(C32-C31)*(P$1)</f>
+      <c r="V32">
+        <f t="shared" si="23"/>
+        <v>624</v>
+      </c>
+      <c r="W32" s="3">
+        <f t="shared" si="24"/>
         <v>10.631297303737231</v>
       </c>
-      <c r="S32" s="6">
-        <f>ROUND(K32,0)</f>
-        <v>-1575</v>
-      </c>
-      <c r="T32" s="6">
-        <f>ROUND(J32,0)</f>
-        <v>857</v>
-      </c>
-      <c r="U32" s="2">
-        <f t="shared" si="18"/>
-        <v>107.38014734244578</v>
-      </c>
-      <c r="V32">
-        <f t="shared" si="19"/>
-        <v>624</v>
-      </c>
-      <c r="W32" s="3">
-        <f t="shared" si="20"/>
-        <v>10.631297303737231</v>
-      </c>
       <c r="X32">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>624</v>
       </c>
     </row>
@@ -4213,67 +4271,67 @@
         <v>297.97000000000003</v>
       </c>
       <c r="G33">
-        <f>+J$3*L$3*(C33-C$6)/M$3+K$3</f>
+        <f t="shared" si="7"/>
         <v>648</v>
       </c>
       <c r="H33" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>19.010000000000002</v>
       </c>
       <c r="I33" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>297.97000000000003</v>
       </c>
       <c r="J33" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>882.14164372335676</v>
       </c>
       <c r="K33" s="6">
+        <f t="shared" si="17"/>
+        <v>-1661.1648495755896</v>
+      </c>
+      <c r="L33" s="6">
+        <f t="shared" si="18"/>
+        <v>24.723455140905912</v>
+      </c>
+      <c r="M33" s="6">
+        <f t="shared" si="19"/>
+        <v>-86.587560248137379</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="20"/>
+        <v>-74.064299749802558</v>
+      </c>
+      <c r="O33" s="2">
+        <f t="shared" si="21"/>
+        <v>105.93570025019744</v>
+      </c>
+      <c r="P33" s="9">
         <f t="shared" si="13"/>
-        <v>-1661.1648495755896</v>
-      </c>
-      <c r="L33" s="6">
-        <f t="shared" si="14"/>
-        <v>24.723455140905912</v>
-      </c>
-      <c r="M33" s="6">
-        <f t="shared" si="15"/>
-        <v>-86.587560248137379</v>
-      </c>
-      <c r="N33">
-        <f t="shared" si="16"/>
-        <v>-74.064299749802558</v>
-      </c>
-      <c r="O33" s="2">
-        <f t="shared" si="17"/>
+        <v>9.0048069517503855</v>
+      </c>
+      <c r="S33" s="6">
+        <f t="shared" si="1"/>
+        <v>-1661</v>
+      </c>
+      <c r="T33" s="6">
+        <f t="shared" si="2"/>
+        <v>882</v>
+      </c>
+      <c r="U33" s="2">
+        <f t="shared" si="22"/>
         <v>105.93570025019744</v>
       </c>
-      <c r="P33" s="9">
-        <f>(SQRT(L33*L33+M33*M33))/(C33-C32)*(P$1)</f>
+      <c r="V33">
+        <f t="shared" si="23"/>
+        <v>648</v>
+      </c>
+      <c r="W33" s="3">
+        <f t="shared" si="24"/>
         <v>9.0048069517503855</v>
       </c>
-      <c r="S33" s="6">
-        <f>ROUND(K33,0)</f>
-        <v>-1661</v>
-      </c>
-      <c r="T33" s="6">
-        <f>ROUND(J33,0)</f>
-        <v>882</v>
-      </c>
-      <c r="U33" s="2">
-        <f t="shared" si="18"/>
-        <v>105.93570025019744</v>
-      </c>
-      <c r="V33">
-        <f t="shared" si="19"/>
-        <v>648</v>
-      </c>
-      <c r="W33" s="3">
-        <f t="shared" si="20"/>
-        <v>9.0048069517503855</v>
-      </c>
       <c r="X33">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>648</v>
       </c>
     </row>
@@ -4294,67 +4352,67 @@
         <v>297.5</v>
       </c>
       <c r="G34">
-        <f>+J$3*L$3*(C34-C$6)/M$3+K$3</f>
+        <f t="shared" si="7"/>
         <v>672</v>
       </c>
       <c r="H34" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>18.78</v>
       </c>
       <c r="I34" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>297.5</v>
       </c>
       <c r="J34" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>912.52977186909777</v>
       </c>
       <c r="K34" s="6">
+        <f t="shared" si="17"/>
+        <v>-1752.9533820896154</v>
+      </c>
+      <c r="L34" s="6">
+        <f t="shared" si="18"/>
+        <v>30.388128145741007</v>
+      </c>
+      <c r="M34" s="6">
+        <f t="shared" si="19"/>
+        <v>-91.788532514025746</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="20"/>
+        <v>-71.682011324787183</v>
+      </c>
+      <c r="O34" s="2">
+        <f t="shared" si="21"/>
+        <v>108.31798867521282</v>
+      </c>
+      <c r="P34" s="9">
         <f t="shared" si="13"/>
-        <v>-1752.9533820896154</v>
-      </c>
-      <c r="L34" s="6">
-        <f t="shared" si="14"/>
-        <v>30.388128145741007</v>
-      </c>
-      <c r="M34" s="6">
-        <f t="shared" si="15"/>
-        <v>-91.788532514025746</v>
-      </c>
-      <c r="N34">
-        <f t="shared" si="16"/>
-        <v>-71.682011324787183</v>
-      </c>
-      <c r="O34" s="2">
-        <f t="shared" si="17"/>
+        <v>9.6688019078272252</v>
+      </c>
+      <c r="S34" s="6">
+        <f t="shared" si="1"/>
+        <v>-1753</v>
+      </c>
+      <c r="T34" s="6">
+        <f t="shared" si="2"/>
+        <v>913</v>
+      </c>
+      <c r="U34" s="2">
+        <f t="shared" si="22"/>
         <v>108.31798867521282</v>
       </c>
-      <c r="P34" s="9">
-        <f>(SQRT(L34*L34+M34*M34))/(C34-C33)*(P$1)</f>
+      <c r="V34">
+        <f t="shared" si="23"/>
+        <v>672</v>
+      </c>
+      <c r="W34" s="3">
+        <f t="shared" si="24"/>
         <v>9.6688019078272252</v>
       </c>
-      <c r="S34" s="6">
-        <f>ROUND(K34,0)</f>
-        <v>-1753</v>
-      </c>
-      <c r="T34" s="6">
-        <f>ROUND(J34,0)</f>
-        <v>913</v>
-      </c>
-      <c r="U34" s="2">
-        <f t="shared" si="18"/>
-        <v>108.31798867521282</v>
-      </c>
-      <c r="V34">
-        <f t="shared" si="19"/>
-        <v>672</v>
-      </c>
-      <c r="W34" s="3">
-        <f t="shared" si="20"/>
-        <v>9.6688019078272252</v>
-      </c>
       <c r="X34">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>672</v>
       </c>
     </row>
@@ -4375,67 +4433,67 @@
         <v>297.43</v>
       </c>
       <c r="G35">
-        <f>+J$3*L$3*(C35-C$6)/M$3+K$3</f>
+        <f t="shared" si="7"/>
         <v>696</v>
       </c>
       <c r="H35" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>18.59</v>
       </c>
       <c r="I35" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>297.43</v>
       </c>
       <c r="J35" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>953.26095812855579</v>
       </c>
       <c r="K35" s="6">
+        <f t="shared" si="17"/>
+        <v>-1836.6724212566751</v>
+      </c>
+      <c r="L35" s="6">
+        <f t="shared" si="18"/>
+        <v>40.731186259458013</v>
+      </c>
+      <c r="M35" s="6">
+        <f t="shared" si="19"/>
+        <v>-83.719039167059691</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="20"/>
+        <v>-64.056041520836445</v>
+      </c>
+      <c r="O35" s="2">
+        <f t="shared" si="21"/>
+        <v>115.94395847916356</v>
+      </c>
+      <c r="P35" s="9">
         <f t="shared" si="13"/>
-        <v>-1836.6724212566751</v>
-      </c>
-      <c r="L35" s="6">
-        <f t="shared" si="14"/>
-        <v>40.731186259458013</v>
-      </c>
-      <c r="M35" s="6">
-        <f t="shared" si="15"/>
-        <v>-83.719039167059691</v>
-      </c>
-      <c r="N35">
-        <f t="shared" si="16"/>
-        <v>-64.056041520836445</v>
-      </c>
-      <c r="O35" s="2">
-        <f t="shared" si="17"/>
+        <v>9.3101595330898252</v>
+      </c>
+      <c r="S35" s="6">
+        <f t="shared" si="1"/>
+        <v>-1837</v>
+      </c>
+      <c r="T35" s="6">
+        <f t="shared" si="2"/>
+        <v>953</v>
+      </c>
+      <c r="U35" s="2">
+        <f t="shared" si="22"/>
         <v>115.94395847916356</v>
       </c>
-      <c r="P35" s="9">
-        <f>(SQRT(L35*L35+M35*M35))/(C35-C34)*(P$1)</f>
+      <c r="V35">
+        <f t="shared" si="23"/>
+        <v>696</v>
+      </c>
+      <c r="W35" s="3">
+        <f t="shared" si="24"/>
         <v>9.3101595330898252</v>
       </c>
-      <c r="S35" s="6">
-        <f>ROUND(K35,0)</f>
-        <v>-1837</v>
-      </c>
-      <c r="T35" s="6">
-        <f>ROUND(J35,0)</f>
-        <v>953</v>
-      </c>
-      <c r="U35" s="2">
-        <f t="shared" si="18"/>
-        <v>115.94395847916356</v>
-      </c>
-      <c r="V35">
-        <f t="shared" si="19"/>
-        <v>696</v>
-      </c>
-      <c r="W35" s="3">
-        <f t="shared" si="20"/>
-        <v>9.3101595330898252</v>
-      </c>
       <c r="X35">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>696</v>
       </c>
     </row>
@@ -4456,67 +4514,67 @@
         <v>297.05</v>
       </c>
       <c r="G36">
-        <f>+J$3*L$3*(C36-C$6)/M$3+K$3</f>
+        <f t="shared" si="7"/>
         <v>720</v>
       </c>
       <c r="H36" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>18.510000000000002</v>
       </c>
       <c r="I36" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>297.05</v>
       </c>
       <c r="J36" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>978.02638863565448</v>
       </c>
       <c r="K36" s="6">
+        <f t="shared" si="17"/>
+        <v>-1915.3509518793151</v>
+      </c>
+      <c r="L36" s="6">
+        <f t="shared" si="18"/>
+        <v>24.765430507098699</v>
+      </c>
+      <c r="M36" s="6">
+        <f t="shared" si="19"/>
+        <v>-78.678530622639983</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="20"/>
+        <v>-72.52770146365954</v>
+      </c>
+      <c r="O36" s="2">
+        <f t="shared" si="21"/>
+        <v>107.47229853634046</v>
+      </c>
+      <c r="P36" s="9">
         <f t="shared" si="13"/>
-        <v>-1915.3509518793151</v>
-      </c>
-      <c r="L36" s="6">
-        <f t="shared" si="14"/>
-        <v>24.765430507098699</v>
-      </c>
-      <c r="M36" s="6">
-        <f t="shared" si="15"/>
-        <v>-78.678530622639983</v>
-      </c>
-      <c r="N36">
-        <f t="shared" si="16"/>
-        <v>-72.52770146365954</v>
-      </c>
-      <c r="O36" s="2">
-        <f t="shared" si="17"/>
+        <v>8.2484166536006374</v>
+      </c>
+      <c r="S36" s="6">
+        <f t="shared" si="1"/>
+        <v>-1915</v>
+      </c>
+      <c r="T36" s="6">
+        <f t="shared" si="2"/>
+        <v>978</v>
+      </c>
+      <c r="U36" s="2">
+        <f t="shared" si="22"/>
         <v>107.47229853634046</v>
       </c>
-      <c r="P36" s="9">
-        <f>(SQRT(L36*L36+M36*M36))/(C36-C35)*(P$1)</f>
+      <c r="V36">
+        <f t="shared" si="23"/>
+        <v>720</v>
+      </c>
+      <c r="W36" s="3">
+        <f t="shared" si="24"/>
         <v>8.2484166536006374</v>
       </c>
-      <c r="S36" s="6">
-        <f>ROUND(K36,0)</f>
-        <v>-1915</v>
-      </c>
-      <c r="T36" s="6">
-        <f>ROUND(J36,0)</f>
-        <v>978</v>
-      </c>
-      <c r="U36" s="2">
-        <f t="shared" si="18"/>
-        <v>107.47229853634046</v>
-      </c>
-      <c r="V36">
-        <f t="shared" si="19"/>
-        <v>720</v>
-      </c>
-      <c r="W36" s="3">
-        <f t="shared" si="20"/>
-        <v>8.2484166536006374</v>
-      </c>
       <c r="X36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>720</v>
       </c>
     </row>
@@ -4537,67 +4595,67 @@
         <v>297.13</v>
       </c>
       <c r="G37">
-        <f>+J$3*L$3*(C37-C$6)/M$3+K$3</f>
+        <f t="shared" si="7"/>
         <v>744</v>
       </c>
       <c r="H37" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>18.559999999999999</v>
       </c>
       <c r="I37" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>297.13</v>
       </c>
       <c r="J37" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1010.4598172823551</v>
       </c>
       <c r="K37" s="6">
+        <f t="shared" si="17"/>
+        <v>-1972.0647256098885</v>
+      </c>
+      <c r="L37" s="6">
+        <f t="shared" si="18"/>
+        <v>32.433428646700577</v>
+      </c>
+      <c r="M37" s="6">
+        <f t="shared" si="19"/>
+        <v>-56.713773730573394</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="20"/>
+        <v>-60.235658005664988</v>
+      </c>
+      <c r="O37" s="2">
+        <f t="shared" si="21"/>
+        <v>119.76434199433501</v>
+      </c>
+      <c r="P37" s="9">
         <f t="shared" si="13"/>
-        <v>-1972.0647256098885</v>
-      </c>
-      <c r="L37" s="6">
-        <f t="shared" si="14"/>
-        <v>32.433428646700577</v>
-      </c>
-      <c r="M37" s="6">
-        <f t="shared" si="15"/>
-        <v>-56.713773730573394</v>
-      </c>
-      <c r="N37">
-        <f t="shared" si="16"/>
-        <v>-60.235658005664988</v>
-      </c>
-      <c r="O37" s="2">
-        <f t="shared" si="17"/>
+        <v>6.5332835730154057</v>
+      </c>
+      <c r="S37" s="6">
+        <f t="shared" si="1"/>
+        <v>-1972</v>
+      </c>
+      <c r="T37" s="6">
+        <f t="shared" si="2"/>
+        <v>1010</v>
+      </c>
+      <c r="U37" s="2">
+        <f t="shared" si="22"/>
         <v>119.76434199433501</v>
       </c>
-      <c r="P37" s="9">
-        <f>(SQRT(L37*L37+M37*M37))/(C37-C36)*(P$1)</f>
+      <c r="V37">
+        <f t="shared" si="23"/>
+        <v>744</v>
+      </c>
+      <c r="W37" s="3">
+        <f t="shared" si="24"/>
         <v>6.5332835730154057</v>
       </c>
-      <c r="S37" s="6">
-        <f>ROUND(K37,0)</f>
-        <v>-1972</v>
-      </c>
-      <c r="T37" s="6">
-        <f>ROUND(J37,0)</f>
-        <v>1010</v>
-      </c>
-      <c r="U37" s="2">
-        <f t="shared" si="18"/>
-        <v>119.76434199433501</v>
-      </c>
-      <c r="V37">
-        <f t="shared" si="19"/>
-        <v>744</v>
-      </c>
-      <c r="W37" s="3">
-        <f t="shared" si="20"/>
-        <v>6.5332835730154057</v>
-      </c>
       <c r="X37">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>744</v>
       </c>
     </row>
@@ -4618,67 +4676,67 @@
         <v>297.04000000000002</v>
       </c>
       <c r="G38">
-        <f>+J$3*L$3*(C38-C$6)/M$3+K$3</f>
+        <f t="shared" si="7"/>
         <v>768</v>
       </c>
       <c r="H38" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>18.66</v>
       </c>
       <c r="I38" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>297.04000000000002</v>
       </c>
       <c r="J38" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1033.8727788461536</v>
       </c>
       <c r="K38" s="6">
+        <f t="shared" si="17"/>
+        <v>-2025.5924102567201</v>
+      </c>
+      <c r="L38" s="6">
+        <f t="shared" si="18"/>
+        <v>23.41296156379849</v>
+      </c>
+      <c r="M38" s="6">
+        <f t="shared" si="19"/>
+        <v>-53.527684646831631</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="20"/>
+        <v>-66.375474393242911</v>
+      </c>
+      <c r="O38" s="2">
+        <f t="shared" si="21"/>
+        <v>113.62452560675709</v>
+      </c>
+      <c r="P38" s="9">
         <f t="shared" si="13"/>
-        <v>-2025.5924102567201</v>
-      </c>
-      <c r="L38" s="6">
-        <f t="shared" si="14"/>
-        <v>23.41296156379849</v>
-      </c>
-      <c r="M38" s="6">
-        <f t="shared" si="15"/>
-        <v>-53.527684646831631</v>
-      </c>
-      <c r="N38">
-        <f t="shared" si="16"/>
-        <v>-66.375474393242911</v>
-      </c>
-      <c r="O38" s="2">
-        <f t="shared" si="17"/>
+        <v>5.8424137073974487</v>
+      </c>
+      <c r="S38" s="6">
+        <f t="shared" si="1"/>
+        <v>-2026</v>
+      </c>
+      <c r="T38" s="6">
+        <f t="shared" si="2"/>
+        <v>1034</v>
+      </c>
+      <c r="U38" s="2">
+        <f t="shared" si="22"/>
         <v>113.62452560675709</v>
       </c>
-      <c r="P38" s="9">
-        <f>(SQRT(L38*L38+M38*M38))/(C38-C37)*(P$1)</f>
+      <c r="V38">
+        <f t="shared" si="23"/>
+        <v>768</v>
+      </c>
+      <c r="W38" s="3">
+        <f t="shared" si="24"/>
         <v>5.8424137073974487</v>
       </c>
-      <c r="S38" s="6">
-        <f>ROUND(K38,0)</f>
-        <v>-2026</v>
-      </c>
-      <c r="T38" s="6">
-        <f>ROUND(J38,0)</f>
-        <v>1034</v>
-      </c>
-      <c r="U38" s="2">
-        <f t="shared" si="18"/>
-        <v>113.62452560675709</v>
-      </c>
-      <c r="V38">
-        <f t="shared" si="19"/>
-        <v>768</v>
-      </c>
-      <c r="W38" s="3">
-        <f t="shared" si="20"/>
-        <v>5.8424137073974487</v>
-      </c>
       <c r="X38">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>768</v>
       </c>
     </row>
@@ -4699,67 +4757,67 @@
         <v>296.87</v>
       </c>
       <c r="G39">
-        <f>+J$3*L$3*(C39-C$6)/M$3+K$3</f>
+        <f t="shared" si="7"/>
         <v>792</v>
       </c>
       <c r="H39" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>18.809999999999999</v>
       </c>
       <c r="I39" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>296.87</v>
       </c>
       <c r="J39" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1050.8946973682409</v>
       </c>
       <c r="K39" s="6">
+        <f t="shared" si="17"/>
+        <v>-2074.1174883798885</v>
+      </c>
+      <c r="L39" s="6">
+        <f t="shared" si="18"/>
+        <v>17.02191852208739</v>
+      </c>
+      <c r="M39" s="6">
+        <f t="shared" si="19"/>
+        <v>-48.525078123168441</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="20"/>
+        <v>-70.66984331942804</v>
+      </c>
+      <c r="O39" s="2">
+        <f t="shared" si="21"/>
+        <v>109.33015668057196</v>
+      </c>
+      <c r="P39" s="9">
         <f t="shared" si="13"/>
-        <v>-2074.1174883798885</v>
-      </c>
-      <c r="L39" s="6">
-        <f t="shared" si="14"/>
-        <v>17.02191852208739</v>
-      </c>
-      <c r="M39" s="6">
-        <f t="shared" si="15"/>
-        <v>-48.525078123168441</v>
-      </c>
-      <c r="N39">
-        <f t="shared" si="16"/>
-        <v>-70.66984331942804</v>
-      </c>
-      <c r="O39" s="2">
-        <f t="shared" si="17"/>
+        <v>5.1424011094353403</v>
+      </c>
+      <c r="S39" s="6">
+        <f t="shared" si="1"/>
+        <v>-2074</v>
+      </c>
+      <c r="T39" s="6">
+        <f t="shared" si="2"/>
+        <v>1051</v>
+      </c>
+      <c r="U39" s="2">
+        <f t="shared" si="22"/>
         <v>109.33015668057196</v>
       </c>
-      <c r="P39" s="9">
-        <f>(SQRT(L39*L39+M39*M39))/(C39-C38)*(P$1)</f>
+      <c r="V39">
+        <f t="shared" si="23"/>
+        <v>792</v>
+      </c>
+      <c r="W39" s="3">
+        <f t="shared" si="24"/>
         <v>5.1424011094353403</v>
       </c>
-      <c r="S39" s="6">
-        <f>ROUND(K39,0)</f>
-        <v>-2074</v>
-      </c>
-      <c r="T39" s="6">
-        <f>ROUND(J39,0)</f>
-        <v>1051</v>
-      </c>
-      <c r="U39" s="2">
-        <f t="shared" si="18"/>
-        <v>109.33015668057196</v>
-      </c>
-      <c r="V39">
-        <f t="shared" si="19"/>
-        <v>792</v>
-      </c>
-      <c r="W39" s="3">
-        <f t="shared" si="20"/>
-        <v>5.1424011094353403</v>
-      </c>
       <c r="X39">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>792</v>
       </c>
     </row>
@@ -4780,67 +4838,67 @@
         <v>296.91000000000003</v>
       </c>
       <c r="G40">
-        <f>+J$3*L$3*(C40-C$6)/M$3+K$3</f>
+        <f t="shared" si="7"/>
         <v>816</v>
       </c>
       <c r="H40" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>19.03</v>
       </c>
       <c r="I40" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>296.91000000000003</v>
       </c>
       <c r="J40" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1070.7433513328858</v>
       </c>
       <c r="K40" s="6">
+        <f t="shared" si="17"/>
+        <v>-2109.6377973578005</v>
+      </c>
+      <c r="L40" s="6">
+        <f t="shared" si="18"/>
+        <v>19.848653964644882</v>
+      </c>
+      <c r="M40" s="6">
+        <f t="shared" si="19"/>
+        <v>-35.520308977912009</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="20"/>
+        <v>-60.803657681684449</v>
+      </c>
+      <c r="O40" s="2">
+        <f t="shared" si="21"/>
+        <v>119.19634231831554</v>
+      </c>
+      <c r="P40" s="9">
         <f t="shared" si="13"/>
-        <v>-2109.6377973578005</v>
-      </c>
-      <c r="L40" s="6">
-        <f t="shared" si="14"/>
-        <v>19.848653964644882</v>
-      </c>
-      <c r="M40" s="6">
-        <f t="shared" si="15"/>
-        <v>-35.520308977912009</v>
-      </c>
-      <c r="N40">
-        <f t="shared" si="16"/>
-        <v>-60.803657681684449</v>
-      </c>
-      <c r="O40" s="2">
-        <f t="shared" si="17"/>
+        <v>4.0689819538731671</v>
+      </c>
+      <c r="S40" s="6">
+        <f t="shared" si="1"/>
+        <v>-2110</v>
+      </c>
+      <c r="T40" s="6">
+        <f t="shared" si="2"/>
+        <v>1071</v>
+      </c>
+      <c r="U40" s="2">
+        <f t="shared" si="22"/>
         <v>119.19634231831554</v>
       </c>
-      <c r="P40" s="9">
-        <f>(SQRT(L40*L40+M40*M40))/(C40-C39)*(P$1)</f>
+      <c r="V40">
+        <f t="shared" si="23"/>
+        <v>816</v>
+      </c>
+      <c r="W40" s="3">
+        <f t="shared" si="24"/>
         <v>4.0689819538731671</v>
       </c>
-      <c r="S40" s="6">
-        <f>ROUND(K40,0)</f>
-        <v>-2110</v>
-      </c>
-      <c r="T40" s="6">
-        <f>ROUND(J40,0)</f>
-        <v>1071</v>
-      </c>
-      <c r="U40" s="2">
-        <f t="shared" si="18"/>
-        <v>119.19634231831554</v>
-      </c>
-      <c r="V40">
-        <f t="shared" si="19"/>
-        <v>816</v>
-      </c>
-      <c r="W40" s="3">
-        <f t="shared" si="20"/>
-        <v>4.0689819538731671</v>
-      </c>
       <c r="X40">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>816</v>
       </c>
     </row>
@@ -4861,67 +4919,67 @@
         <v>296.89999999999998</v>
       </c>
       <c r="G41">
-        <f>+J$3*L$3*(C41-C$6)/M$3+K$3</f>
+        <f t="shared" si="7"/>
         <v>840</v>
       </c>
       <c r="H41" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>19.25</v>
       </c>
       <c r="I41" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>296.89999999999998</v>
       </c>
       <c r="J41" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1088.282194294384</v>
       </c>
       <c r="K41" s="6">
+        <f t="shared" si="17"/>
+        <v>-2145.1213896948475</v>
+      </c>
+      <c r="L41" s="6">
+        <f t="shared" si="18"/>
+        <v>17.538842961498176</v>
+      </c>
+      <c r="M41" s="6">
+        <f t="shared" si="19"/>
+        <v>-35.483592337046957</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="20"/>
+        <v>-63.697716930032911</v>
+      </c>
+      <c r="O41" s="2">
+        <f t="shared" si="21"/>
+        <v>116.30228306996709</v>
+      </c>
+      <c r="P41" s="9">
         <f t="shared" si="13"/>
-        <v>-2145.1213896948475</v>
-      </c>
-      <c r="L41" s="6">
-        <f t="shared" si="14"/>
-        <v>17.538842961498176</v>
-      </c>
-      <c r="M41" s="6">
-        <f t="shared" si="15"/>
-        <v>-35.483592337046957</v>
-      </c>
-      <c r="N41">
-        <f t="shared" si="16"/>
-        <v>-63.697716930032911</v>
-      </c>
-      <c r="O41" s="2">
-        <f t="shared" si="17"/>
+        <v>3.9581515099473288</v>
+      </c>
+      <c r="S41" s="6">
+        <f t="shared" si="1"/>
+        <v>-2145</v>
+      </c>
+      <c r="T41" s="6">
+        <f t="shared" si="2"/>
+        <v>1088</v>
+      </c>
+      <c r="U41" s="2">
+        <f t="shared" si="22"/>
         <v>116.30228306996709</v>
       </c>
-      <c r="P41" s="9">
-        <f>(SQRT(L41*L41+M41*M41))/(C41-C40)*(P$1)</f>
+      <c r="V41">
+        <f t="shared" si="23"/>
+        <v>840</v>
+      </c>
+      <c r="W41" s="3">
+        <f t="shared" si="24"/>
         <v>3.9581515099473288</v>
       </c>
-      <c r="S41" s="6">
-        <f>ROUND(K41,0)</f>
-        <v>-2145</v>
-      </c>
-      <c r="T41" s="6">
-        <f>ROUND(J41,0)</f>
-        <v>1088</v>
-      </c>
-      <c r="U41" s="2">
-        <f t="shared" si="18"/>
-        <v>116.30228306996709</v>
-      </c>
-      <c r="V41">
-        <f t="shared" si="19"/>
-        <v>840</v>
-      </c>
-      <c r="W41" s="3">
-        <f t="shared" si="20"/>
-        <v>3.9581515099473288</v>
-      </c>
       <c r="X41">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>840</v>
       </c>
     </row>
@@ -4942,67 +5000,67 @@
         <v>297.14</v>
       </c>
       <c r="G42">
-        <f>+J$3*L$3*(C42-C$6)/M$3+K$3</f>
+        <f t="shared" si="7"/>
         <v>864</v>
       </c>
       <c r="H42" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>19.63</v>
       </c>
       <c r="I42" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>297.14</v>
       </c>
       <c r="J42" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1105.0078708139192</v>
       </c>
       <c r="K42" s="6">
+        <f t="shared" si="17"/>
+        <v>-2155.6623735372614</v>
+      </c>
+      <c r="L42" s="6">
+        <f t="shared" si="18"/>
+        <v>16.725676519535227</v>
+      </c>
+      <c r="M42" s="6">
+        <f t="shared" si="19"/>
+        <v>-10.54098384241388</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="20"/>
+        <v>-32.220264229088649</v>
+      </c>
+      <c r="O42" s="2">
+        <f t="shared" si="21"/>
+        <v>147.77973577091134</v>
+      </c>
+      <c r="P42" s="9">
         <f t="shared" si="13"/>
-        <v>-2155.6623735372614</v>
-      </c>
-      <c r="L42" s="6">
-        <f t="shared" si="14"/>
-        <v>16.725676519535227</v>
-      </c>
-      <c r="M42" s="6">
-        <f t="shared" si="15"/>
-        <v>-10.54098384241388</v>
-      </c>
-      <c r="N42">
-        <f t="shared" si="16"/>
-        <v>-32.220264229088649</v>
-      </c>
-      <c r="O42" s="2">
-        <f t="shared" si="17"/>
+        <v>1.9770194622263144</v>
+      </c>
+      <c r="S42" s="6">
+        <f t="shared" si="1"/>
+        <v>-2156</v>
+      </c>
+      <c r="T42" s="6">
+        <f t="shared" si="2"/>
+        <v>1105</v>
+      </c>
+      <c r="U42" s="2">
+        <f t="shared" si="22"/>
         <v>147.77973577091134</v>
       </c>
-      <c r="P42" s="9">
-        <f>(SQRT(L42*L42+M42*M42))/(C42-C41)*(P$1)</f>
+      <c r="V42">
+        <f t="shared" si="23"/>
+        <v>864</v>
+      </c>
+      <c r="W42" s="3">
+        <f t="shared" si="24"/>
         <v>1.9770194622263144</v>
       </c>
-      <c r="S42" s="6">
-        <f>ROUND(K42,0)</f>
-        <v>-2156</v>
-      </c>
-      <c r="T42" s="6">
-        <f>ROUND(J42,0)</f>
-        <v>1105</v>
-      </c>
-      <c r="U42" s="2">
-        <f t="shared" si="18"/>
-        <v>147.77973577091134</v>
-      </c>
-      <c r="V42">
-        <f t="shared" si="19"/>
-        <v>864</v>
-      </c>
-      <c r="W42" s="3">
-        <f t="shared" si="20"/>
-        <v>1.9770194622263144</v>
-      </c>
       <c r="X42">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>864</v>
       </c>
     </row>
@@ -5023,67 +5081,67 @@
         <v>296.81</v>
       </c>
       <c r="G43">
-        <f>+J$3*L$3*(C43-C$6)/M$3+K$3</f>
+        <f t="shared" si="7"/>
         <v>888</v>
       </c>
       <c r="H43" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>20.07</v>
       </c>
       <c r="I43" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>296.81</v>
       </c>
       <c r="J43" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1096.2439647791923</v>
       </c>
       <c r="K43" s="6">
+        <f t="shared" si="17"/>
+        <v>-2169.2533406350963</v>
+      </c>
+      <c r="L43" s="6">
+        <f t="shared" si="18"/>
+        <v>-8.7639060347269151</v>
+      </c>
+      <c r="M43" s="6">
+        <f t="shared" si="19"/>
+        <v>-13.590967097834891</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="20"/>
+        <v>57.184735858950411</v>
+      </c>
+      <c r="O43" s="2">
+        <f t="shared" si="21"/>
+        <v>57.184735858950411</v>
+      </c>
+      <c r="P43" s="9">
         <f t="shared" si="13"/>
-        <v>-2169.2533406350963</v>
-      </c>
-      <c r="L43" s="6">
-        <f t="shared" si="14"/>
-        <v>-8.7639060347269151</v>
-      </c>
-      <c r="M43" s="6">
-        <f t="shared" si="15"/>
-        <v>-13.590967097834891</v>
-      </c>
-      <c r="N43">
-        <f t="shared" si="16"/>
+        <v>1.6171593478688284</v>
+      </c>
+      <c r="S43" s="6">
+        <f t="shared" si="1"/>
+        <v>-2169</v>
+      </c>
+      <c r="T43" s="6">
+        <f t="shared" si="2"/>
+        <v>1096</v>
+      </c>
+      <c r="U43" s="2">
+        <f t="shared" si="22"/>
         <v>57.184735858950411</v>
       </c>
-      <c r="O43" s="2">
-        <f t="shared" si="17"/>
-        <v>57.184735858950411</v>
-      </c>
-      <c r="P43" s="9">
-        <f>(SQRT(L43*L43+M43*M43))/(C43-C42)*(P$1)</f>
+      <c r="V43">
+        <f t="shared" si="23"/>
+        <v>888</v>
+      </c>
+      <c r="W43" s="3">
+        <f t="shared" si="24"/>
         <v>1.6171593478688284</v>
       </c>
-      <c r="S43" s="6">
-        <f>ROUND(K43,0)</f>
-        <v>-2169</v>
-      </c>
-      <c r="T43" s="6">
-        <f>ROUND(J43,0)</f>
-        <v>1096</v>
-      </c>
-      <c r="U43" s="2">
-        <f t="shared" si="18"/>
-        <v>57.184735858950411</v>
-      </c>
-      <c r="V43">
-        <f t="shared" si="19"/>
-        <v>888</v>
-      </c>
-      <c r="W43" s="3">
-        <f t="shared" si="20"/>
-        <v>1.6171593478688284</v>
-      </c>
       <c r="X43">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>888</v>
       </c>
     </row>
@@ -5104,67 +5162,67 @@
         <v>296.20999999999998</v>
       </c>
       <c r="G44">
-        <f>+J$3*L$3*(C44-C$6)/M$3+K$3</f>
+        <f t="shared" si="7"/>
         <v>912</v>
       </c>
       <c r="H44" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>20.52</v>
       </c>
       <c r="I44" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>296.20999999999998</v>
       </c>
       <c r="J44" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1076.1818990611205</v>
       </c>
       <c r="K44" s="6">
+        <f t="shared" si="17"/>
+        <v>-2186.1271656020631</v>
+      </c>
+      <c r="L44" s="6">
+        <f t="shared" si="18"/>
+        <v>-20.062065718071835</v>
+      </c>
+      <c r="M44" s="6">
+        <f t="shared" si="19"/>
+        <v>-16.873824966966822</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="20"/>
+        <v>40.066558164896051</v>
+      </c>
+      <c r="O44" s="2">
+        <f t="shared" si="21"/>
+        <v>40.066558164896051</v>
+      </c>
+      <c r="P44" s="9">
         <f t="shared" si="13"/>
-        <v>-2186.1271656020631</v>
-      </c>
-      <c r="L44" s="6">
-        <f t="shared" si="14"/>
-        <v>-20.062065718071835</v>
-      </c>
-      <c r="M44" s="6">
-        <f t="shared" si="15"/>
-        <v>-16.873824966966822</v>
-      </c>
-      <c r="N44">
-        <f t="shared" si="16"/>
+        <v>2.6214737265364039</v>
+      </c>
+      <c r="S44" s="6">
+        <f t="shared" si="1"/>
+        <v>-2186</v>
+      </c>
+      <c r="T44" s="6">
+        <f t="shared" si="2"/>
+        <v>1076</v>
+      </c>
+      <c r="U44" s="2">
+        <f t="shared" si="22"/>
         <v>40.066558164896051</v>
       </c>
-      <c r="O44" s="2">
-        <f t="shared" si="17"/>
-        <v>40.066558164896051</v>
-      </c>
-      <c r="P44" s="9">
-        <f>(SQRT(L44*L44+M44*M44))/(C44-C43)*(P$1)</f>
+      <c r="V44">
+        <f t="shared" si="23"/>
+        <v>912</v>
+      </c>
+      <c r="W44" s="3">
+        <f t="shared" si="24"/>
         <v>2.6214737265364039</v>
       </c>
-      <c r="S44" s="6">
-        <f>ROUND(K44,0)</f>
-        <v>-2186</v>
-      </c>
-      <c r="T44" s="6">
-        <f>ROUND(J44,0)</f>
-        <v>1076</v>
-      </c>
-      <c r="U44" s="2">
-        <f t="shared" si="18"/>
-        <v>40.066558164896051</v>
-      </c>
-      <c r="V44">
-        <f t="shared" si="19"/>
-        <v>912</v>
-      </c>
-      <c r="W44" s="3">
-        <f t="shared" si="20"/>
-        <v>2.6214737265364039</v>
-      </c>
       <c r="X44">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>912</v>
       </c>
     </row>
@@ -5185,67 +5243,67 @@
         <v>295.45999999999998</v>
       </c>
       <c r="G45">
-        <f>+J$3*L$3*(C45-C$6)/M$3+K$3</f>
+        <f t="shared" si="7"/>
         <v>936</v>
       </c>
       <c r="H45" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>20.77</v>
       </c>
       <c r="I45" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>295.45999999999998</v>
       </c>
       <c r="J45" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1060.9155620027771</v>
       </c>
       <c r="K45" s="6">
+        <f t="shared" si="17"/>
+        <v>-2228.2578098590861</v>
+      </c>
+      <c r="L45" s="6">
+        <f t="shared" si="18"/>
+        <v>-15.266337058343424</v>
+      </c>
+      <c r="M45" s="6">
+        <f t="shared" si="19"/>
+        <v>-42.13064425702305</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="20"/>
+        <v>70.081657522841311</v>
+      </c>
+      <c r="O45" s="2">
+        <f t="shared" si="21"/>
+        <v>70.081657522841311</v>
+      </c>
+      <c r="P45" s="9">
         <f t="shared" si="13"/>
-        <v>-2228.2578098590861</v>
-      </c>
-      <c r="L45" s="6">
-        <f t="shared" si="14"/>
-        <v>-15.266337058343424</v>
-      </c>
-      <c r="M45" s="6">
-        <f t="shared" si="15"/>
-        <v>-42.13064425702305</v>
-      </c>
-      <c r="N45">
-        <f t="shared" si="16"/>
+        <v>4.4811295815796033</v>
+      </c>
+      <c r="S45" s="6">
+        <f t="shared" si="1"/>
+        <v>-2228</v>
+      </c>
+      <c r="T45" s="6">
+        <f t="shared" si="2"/>
+        <v>1061</v>
+      </c>
+      <c r="U45" s="2">
+        <f t="shared" si="22"/>
         <v>70.081657522841311</v>
       </c>
-      <c r="O45" s="2">
-        <f t="shared" si="17"/>
-        <v>70.081657522841311</v>
-      </c>
-      <c r="P45" s="9">
-        <f>(SQRT(L45*L45+M45*M45))/(C45-C44)*(P$1)</f>
+      <c r="V45">
+        <f t="shared" si="23"/>
+        <v>936</v>
+      </c>
+      <c r="W45" s="3">
+        <f t="shared" si="24"/>
         <v>4.4811295815796033</v>
       </c>
-      <c r="S45" s="6">
-        <f>ROUND(K45,0)</f>
-        <v>-2228</v>
-      </c>
-      <c r="T45" s="6">
-        <f>ROUND(J45,0)</f>
-        <v>1061</v>
-      </c>
-      <c r="U45" s="2">
-        <f t="shared" si="18"/>
-        <v>70.081657522841311</v>
-      </c>
-      <c r="V45">
-        <f t="shared" si="19"/>
-        <v>936</v>
-      </c>
-      <c r="W45" s="3">
-        <f t="shared" si="20"/>
-        <v>4.4811295815796033</v>
-      </c>
       <c r="X45">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>936</v>
       </c>
     </row>
@@ -5266,67 +5324,67 @@
         <v>294.38</v>
       </c>
       <c r="G46">
-        <f>+J$3*L$3*(C46-C$6)/M$3+K$3</f>
+        <f t="shared" si="7"/>
         <v>960</v>
       </c>
       <c r="H46" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>20.93</v>
       </c>
       <c r="I46" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>294.38</v>
       </c>
       <c r="J46" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1036.1136128680521</v>
       </c>
       <c r="K46" s="6">
+        <f t="shared" si="17"/>
+        <v>-2286.2207265594038</v>
+      </c>
+      <c r="L46" s="6">
+        <f t="shared" si="18"/>
+        <v>-24.801949134724964</v>
+      </c>
+      <c r="M46" s="6">
+        <f t="shared" si="19"/>
+        <v>-57.962916700317692</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="20"/>
+        <v>66.8342378580614</v>
+      </c>
+      <c r="O46" s="2">
+        <f t="shared" si="21"/>
+        <v>66.8342378580614</v>
+      </c>
+      <c r="P46" s="9">
         <f t="shared" si="13"/>
-        <v>-2286.2207265594038</v>
-      </c>
-      <c r="L46" s="6">
-        <f t="shared" si="14"/>
-        <v>-24.801949134724964</v>
-      </c>
-      <c r="M46" s="6">
-        <f t="shared" si="15"/>
-        <v>-57.962916700317692</v>
-      </c>
-      <c r="N46">
-        <f t="shared" si="16"/>
+        <v>6.3046303565629058</v>
+      </c>
+      <c r="S46" s="6">
+        <f t="shared" si="1"/>
+        <v>-2286</v>
+      </c>
+      <c r="T46" s="6">
+        <f t="shared" si="2"/>
+        <v>1036</v>
+      </c>
+      <c r="U46" s="2">
+        <f t="shared" si="22"/>
         <v>66.8342378580614</v>
       </c>
-      <c r="O46" s="2">
-        <f t="shared" si="17"/>
-        <v>66.8342378580614</v>
-      </c>
-      <c r="P46" s="9">
-        <f>(SQRT(L46*L46+M46*M46))/(C46-C45)*(P$1)</f>
+      <c r="V46">
+        <f t="shared" si="23"/>
+        <v>960</v>
+      </c>
+      <c r="W46" s="3">
+        <f t="shared" si="24"/>
         <v>6.3046303565629058</v>
       </c>
-      <c r="S46" s="6">
-        <f>ROUND(K46,0)</f>
-        <v>-2286</v>
-      </c>
-      <c r="T46" s="6">
-        <f>ROUND(J46,0)</f>
-        <v>1036</v>
-      </c>
-      <c r="U46" s="2">
-        <f t="shared" si="18"/>
-        <v>66.8342378580614</v>
-      </c>
-      <c r="V46">
-        <f t="shared" si="19"/>
-        <v>960</v>
-      </c>
-      <c r="W46" s="3">
-        <f t="shared" si="20"/>
-        <v>6.3046303565629058</v>
-      </c>
       <c r="X46">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>960</v>
       </c>
     </row>
@@ -5347,67 +5405,67 @@
         <v>293.31</v>
       </c>
       <c r="G47">
-        <f>+J$3*L$3*(C47-C$6)/M$3+K$3</f>
+        <f t="shared" si="7"/>
         <v>984</v>
       </c>
       <c r="H47" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>21.12</v>
       </c>
       <c r="I47" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>293.31</v>
       </c>
       <c r="J47" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1008.0397948061402</v>
       </c>
       <c r="K47" s="6">
+        <f t="shared" si="17"/>
+        <v>-2339.5181649330029</v>
+      </c>
+      <c r="L47" s="6">
+        <f t="shared" si="18"/>
+        <v>-28.073818061911879</v>
+      </c>
+      <c r="M47" s="6">
+        <f t="shared" si="19"/>
+        <v>-53.297438373599107</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="20"/>
+        <v>62.222492391855539</v>
+      </c>
+      <c r="O47" s="2">
+        <f t="shared" si="21"/>
+        <v>62.222492391855539</v>
+      </c>
+      <c r="P47" s="9">
         <f t="shared" si="13"/>
-        <v>-2339.5181649330029</v>
-      </c>
-      <c r="L47" s="6">
-        <f t="shared" si="14"/>
-        <v>-28.073818061911879</v>
-      </c>
-      <c r="M47" s="6">
-        <f t="shared" si="15"/>
-        <v>-53.297438373599107</v>
-      </c>
-      <c r="N47">
-        <f t="shared" si="16"/>
+        <v>6.0239158342069521</v>
+      </c>
+      <c r="S47" s="6">
+        <f t="shared" si="1"/>
+        <v>-2340</v>
+      </c>
+      <c r="T47" s="6">
+        <f t="shared" si="2"/>
+        <v>1008</v>
+      </c>
+      <c r="U47" s="2">
+        <f t="shared" si="22"/>
         <v>62.222492391855539</v>
       </c>
-      <c r="O47" s="2">
-        <f t="shared" si="17"/>
-        <v>62.222492391855539</v>
-      </c>
-      <c r="P47" s="9">
-        <f>(SQRT(L47*L47+M47*M47))/(C47-C46)*(P$1)</f>
+      <c r="V47">
+        <f t="shared" si="23"/>
+        <v>984</v>
+      </c>
+      <c r="W47" s="3">
+        <f t="shared" si="24"/>
         <v>6.0239158342069521</v>
       </c>
-      <c r="S47" s="6">
-        <f>ROUND(K47,0)</f>
-        <v>-2340</v>
-      </c>
-      <c r="T47" s="6">
-        <f>ROUND(J47,0)</f>
-        <v>1008</v>
-      </c>
-      <c r="U47" s="2">
-        <f t="shared" si="18"/>
-        <v>62.222492391855539</v>
-      </c>
-      <c r="V47">
-        <f t="shared" si="19"/>
-        <v>984</v>
-      </c>
-      <c r="W47" s="3">
-        <f t="shared" si="20"/>
-        <v>6.0239158342069521</v>
-      </c>
       <c r="X47">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>984</v>
       </c>
     </row>
@@ -5428,67 +5486,67 @@
         <v>292.31</v>
       </c>
       <c r="G48">
-        <f>+J$3*L$3*(C48-C$6)/M$3+K$3</f>
+        <f t="shared" si="7"/>
         <v>1008</v>
       </c>
       <c r="H48" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>21.22</v>
       </c>
       <c r="I48" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>292.31</v>
       </c>
       <c r="J48" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>985.521901443003</v>
       </c>
       <c r="K48" s="6">
+        <f t="shared" si="17"/>
+        <v>-2401.7566052516313</v>
+      </c>
+      <c r="L48" s="6">
+        <f t="shared" si="18"/>
+        <v>-22.517893363137205</v>
+      </c>
+      <c r="M48" s="6">
+        <f t="shared" si="19"/>
+        <v>-62.238440318628363</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="20"/>
+        <v>70.109855250637565</v>
+      </c>
+      <c r="O48" s="2">
+        <f t="shared" si="21"/>
+        <v>70.109855250637565</v>
+      </c>
+      <c r="P48" s="9">
         <f t="shared" si="13"/>
-        <v>-2401.7566052516313</v>
-      </c>
-      <c r="L48" s="6">
-        <f t="shared" si="14"/>
-        <v>-22.517893363137205</v>
-      </c>
-      <c r="M48" s="6">
-        <f t="shared" si="15"/>
-        <v>-62.238440318628363</v>
-      </c>
-      <c r="N48">
-        <f t="shared" si="16"/>
+        <v>6.6186697869051327</v>
+      </c>
+      <c r="S48" s="6">
+        <f t="shared" si="1"/>
+        <v>-2402</v>
+      </c>
+      <c r="T48" s="6">
+        <f t="shared" si="2"/>
+        <v>986</v>
+      </c>
+      <c r="U48" s="2">
+        <f t="shared" si="22"/>
         <v>70.109855250637565</v>
       </c>
-      <c r="O48" s="2">
-        <f t="shared" si="17"/>
-        <v>70.109855250637565</v>
-      </c>
-      <c r="P48" s="9">
-        <f>(SQRT(L48*L48+M48*M48))/(C48-C47)*(P$1)</f>
+      <c r="V48">
+        <f t="shared" si="23"/>
+        <v>1008</v>
+      </c>
+      <c r="W48" s="3">
+        <f t="shared" si="24"/>
         <v>6.6186697869051327</v>
       </c>
-      <c r="S48" s="6">
-        <f>ROUND(K48,0)</f>
-        <v>-2402</v>
-      </c>
-      <c r="T48" s="6">
-        <f>ROUND(J48,0)</f>
-        <v>986</v>
-      </c>
-      <c r="U48" s="2">
-        <f t="shared" si="18"/>
-        <v>70.109855250637565</v>
-      </c>
-      <c r="V48">
-        <f t="shared" si="19"/>
-        <v>1008</v>
-      </c>
-      <c r="W48" s="3">
-        <f t="shared" si="20"/>
-        <v>6.6186697869051327</v>
-      </c>
       <c r="X48">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>1008</v>
       </c>
     </row>
@@ -5509,67 +5567,67 @@
         <v>291.02999999999997</v>
       </c>
       <c r="G49">
-        <f>+J$3*L$3*(C49-C$6)/M$3+K$3</f>
+        <f t="shared" si="7"/>
         <v>1032</v>
       </c>
       <c r="H49" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>21.31</v>
       </c>
       <c r="I49" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>291.02999999999997</v>
       </c>
       <c r="J49" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>949.38370101558644</v>
       </c>
       <c r="K49" s="6">
+        <f t="shared" si="17"/>
+        <v>-2469.363736126988</v>
+      </c>
+      <c r="L49" s="6">
+        <f t="shared" si="18"/>
+        <v>-36.138200427416564</v>
+      </c>
+      <c r="M49" s="6">
+        <f t="shared" si="19"/>
+        <v>-67.607130875356688</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="20"/>
+        <v>61.874053387858631</v>
+      </c>
+      <c r="O49" s="2">
+        <f t="shared" si="21"/>
+        <v>61.874053387858631</v>
+      </c>
+      <c r="P49" s="9">
         <f t="shared" si="13"/>
-        <v>-2469.363736126988</v>
-      </c>
-      <c r="L49" s="6">
-        <f t="shared" si="14"/>
-        <v>-36.138200427416564</v>
-      </c>
-      <c r="M49" s="6">
-        <f t="shared" si="15"/>
-        <v>-67.607130875356688</v>
-      </c>
-      <c r="N49">
-        <f t="shared" si="16"/>
+        <v>7.6659596107269818</v>
+      </c>
+      <c r="S49" s="6">
+        <f t="shared" si="1"/>
+        <v>-2469</v>
+      </c>
+      <c r="T49" s="6">
+        <f t="shared" si="2"/>
+        <v>949</v>
+      </c>
+      <c r="U49" s="2">
+        <f t="shared" si="22"/>
         <v>61.874053387858631</v>
       </c>
-      <c r="O49" s="2">
-        <f t="shared" si="17"/>
-        <v>61.874053387858631</v>
-      </c>
-      <c r="P49" s="9">
-        <f>(SQRT(L49*L49+M49*M49))/(C49-C48)*(P$1)</f>
+      <c r="V49">
+        <f t="shared" si="23"/>
+        <v>1032</v>
+      </c>
+      <c r="W49" s="3">
+        <f t="shared" si="24"/>
         <v>7.6659596107269818</v>
       </c>
-      <c r="S49" s="6">
-        <f>ROUND(K49,0)</f>
-        <v>-2469</v>
-      </c>
-      <c r="T49" s="6">
-        <f>ROUND(J49,0)</f>
-        <v>949</v>
-      </c>
-      <c r="U49" s="2">
-        <f t="shared" si="18"/>
-        <v>61.874053387858631</v>
-      </c>
-      <c r="V49">
-        <f t="shared" si="19"/>
-        <v>1032</v>
-      </c>
-      <c r="W49" s="3">
-        <f t="shared" si="20"/>
-        <v>7.6659596107269818</v>
-      </c>
       <c r="X49">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>1032</v>
       </c>
     </row>
@@ -5590,67 +5648,67 @@
         <v>289.83999999999997</v>
       </c>
       <c r="G50">
-        <f>+J$3*L$3*(C50-C$6)/M$3+K$3</f>
+        <f t="shared" si="7"/>
         <v>1056</v>
       </c>
       <c r="H50" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>21.26</v>
       </c>
       <c r="I50" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>289.83999999999997</v>
       </c>
       <c r="J50" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>921.15015177182738</v>
       </c>
       <c r="K50" s="6">
+        <f t="shared" si="17"/>
+        <v>-2552.9992787452256</v>
+      </c>
+      <c r="L50" s="6">
+        <f t="shared" si="18"/>
+        <v>-28.233549243759057</v>
+      </c>
+      <c r="M50" s="6">
+        <f t="shared" si="19"/>
+        <v>-83.63554261823765</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="20"/>
+        <v>71.346430797214907</v>
+      </c>
+      <c r="O50" s="2">
+        <f t="shared" si="21"/>
+        <v>71.346430797214907</v>
+      </c>
+      <c r="P50" s="9">
         <f t="shared" si="13"/>
-        <v>-2552.9992787452256</v>
-      </c>
-      <c r="L50" s="6">
-        <f t="shared" si="14"/>
-        <v>-28.233549243759057</v>
-      </c>
-      <c r="M50" s="6">
-        <f t="shared" si="15"/>
-        <v>-83.63554261823765</v>
-      </c>
-      <c r="N50">
-        <f t="shared" si="16"/>
+        <v>8.8272517195029714</v>
+      </c>
+      <c r="S50" s="6">
+        <f t="shared" si="1"/>
+        <v>-2553</v>
+      </c>
+      <c r="T50" s="6">
+        <f t="shared" si="2"/>
+        <v>921</v>
+      </c>
+      <c r="U50" s="2">
+        <f t="shared" si="22"/>
         <v>71.346430797214907</v>
       </c>
-      <c r="O50" s="2">
-        <f t="shared" si="17"/>
-        <v>71.346430797214907</v>
-      </c>
-      <c r="P50" s="9">
-        <f>(SQRT(L50*L50+M50*M50))/(C50-C49)*(P$1)</f>
+      <c r="V50">
+        <f t="shared" si="23"/>
+        <v>1056</v>
+      </c>
+      <c r="W50" s="3">
+        <f t="shared" si="24"/>
         <v>8.8272517195029714</v>
       </c>
-      <c r="S50" s="6">
-        <f>ROUND(K50,0)</f>
-        <v>-2553</v>
-      </c>
-      <c r="T50" s="6">
-        <f>ROUND(J50,0)</f>
-        <v>921</v>
-      </c>
-      <c r="U50" s="2">
-        <f t="shared" si="18"/>
-        <v>71.346430797214907</v>
-      </c>
-      <c r="V50">
-        <f t="shared" si="19"/>
-        <v>1056</v>
-      </c>
-      <c r="W50" s="3">
-        <f t="shared" si="20"/>
-        <v>8.8272517195029714</v>
-      </c>
       <c r="X50">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>1056</v>
       </c>
     </row>
@@ -5671,235 +5729,78 @@
         <v>288.48</v>
       </c>
       <c r="G51">
-        <f>+J$3*L$3*(C51-C$6)/M$3+K$3</f>
+        <f t="shared" si="7"/>
         <v>1080</v>
       </c>
       <c r="H51" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>21.33</v>
       </c>
       <c r="I51" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>288.48</v>
       </c>
       <c r="J51" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>876.67829996079388</v>
       </c>
       <c r="K51" s="6">
+        <f t="shared" si="17"/>
+        <v>-2623.1578746698992</v>
+      </c>
+      <c r="L51" s="6">
+        <f t="shared" si="18"/>
+        <v>-44.471851811033503</v>
+      </c>
+      <c r="M51" s="6">
+        <f t="shared" si="19"/>
+        <v>-70.158595924673591</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="20"/>
+        <v>57.630369652996293</v>
+      </c>
+      <c r="O51" s="2">
+        <f t="shared" si="21"/>
+        <v>57.630369652996293</v>
+      </c>
+      <c r="P51" s="9">
         <f t="shared" si="13"/>
-        <v>-2623.1578746698992</v>
-      </c>
-      <c r="L51" s="6">
-        <f t="shared" si="14"/>
-        <v>-44.471851811033503</v>
-      </c>
-      <c r="M51" s="6">
-        <f t="shared" si="15"/>
-        <v>-70.158595924673591</v>
-      </c>
-      <c r="N51">
-        <f t="shared" si="16"/>
+        <v>8.3066083244752473</v>
+      </c>
+      <c r="S51" s="6">
+        <f t="shared" si="1"/>
+        <v>-2623</v>
+      </c>
+      <c r="T51" s="6">
+        <f t="shared" si="2"/>
+        <v>877</v>
+      </c>
+      <c r="U51" s="2">
+        <f t="shared" si="22"/>
         <v>57.630369652996293</v>
       </c>
-      <c r="O51" s="2">
-        <f t="shared" si="17"/>
-        <v>57.630369652996293</v>
-      </c>
-      <c r="P51" s="9">
-        <f>(SQRT(L51*L51+M51*M51))/(C51-C50)*(P$1)</f>
+      <c r="V51">
+        <f t="shared" si="23"/>
+        <v>1080</v>
+      </c>
+      <c r="W51" s="3">
+        <f t="shared" si="24"/>
         <v>8.3066083244752473</v>
       </c>
-      <c r="S51" s="6">
-        <f>ROUND(K51,0)</f>
-        <v>-2623</v>
-      </c>
-      <c r="T51" s="6">
-        <f>ROUND(J51,0)</f>
-        <v>877</v>
-      </c>
-      <c r="U51" s="2">
-        <f t="shared" si="18"/>
-        <v>57.630369652996293</v>
-      </c>
-      <c r="V51">
-        <f t="shared" si="19"/>
+      <c r="X51">
+        <f t="shared" si="25"/>
         <v>1080</v>
-      </c>
-      <c r="W51" s="3">
-        <f t="shared" si="20"/>
-        <v>8.3066083244752473</v>
-      </c>
-      <c r="X51">
-        <f t="shared" si="21"/>
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="52" spans="1:24">
-      <c r="A52" t="s">
-        <v>29</v>
-      </c>
-      <c r="B52" t="s">
-        <v>30</v>
-      </c>
-      <c r="C52">
-        <v>460</v>
-      </c>
-      <c r="D52">
-        <v>18.28</v>
-      </c>
-      <c r="E52">
-        <v>286.63</v>
-      </c>
-      <c r="G52">
-        <f>+J$3*L$3*(C52-C$6)/M$3+K$3</f>
-        <v>1104</v>
-      </c>
-      <c r="H52" s="8">
-        <f t="shared" si="10"/>
-        <v>18.28</v>
-      </c>
-      <c r="I52" s="8">
-        <f t="shared" si="11"/>
-        <v>286.63</v>
-      </c>
-      <c r="J52" s="6">
-        <f t="shared" si="12"/>
-        <v>956.47609070690919</v>
-      </c>
-      <c r="K52" s="6">
-        <f t="shared" si="13"/>
-        <v>-3202.309979659241</v>
-      </c>
-      <c r="L52" s="6">
-        <f t="shared" si="14"/>
-        <v>79.797790746115311</v>
-      </c>
-      <c r="M52" s="6">
-        <f t="shared" si="15"/>
-        <v>-579.15210498934175</v>
-      </c>
-      <c r="N52">
-        <f t="shared" si="16"/>
-        <v>-82.154964024186199</v>
-      </c>
-      <c r="O52" s="2">
-        <f t="shared" si="17"/>
-        <v>97.845035975813801</v>
-      </c>
-      <c r="P52" s="9">
-        <f>(SQRT(L52*L52+M52*M52))/(C52-C51)*(P$1)</f>
-        <v>58.462368077383452</v>
-      </c>
-      <c r="S52" s="6">
-        <f>ROUND(K52,0)</f>
-        <v>-3202</v>
-      </c>
-      <c r="T52" s="6">
-        <f>ROUND(J52,0)</f>
-        <v>956</v>
-      </c>
-      <c r="U52" s="2">
-        <f t="shared" si="18"/>
-        <v>97.845035975813801</v>
-      </c>
-      <c r="V52">
-        <f t="shared" si="19"/>
-        <v>1104</v>
-      </c>
-      <c r="W52" s="3">
-        <f t="shared" si="20"/>
-        <v>58.462368077383452</v>
-      </c>
-      <c r="X52">
-        <f t="shared" si="21"/>
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="53" spans="1:24">
-      <c r="A53" t="s">
-        <v>31</v>
-      </c>
-      <c r="B53" t="s">
-        <v>30</v>
-      </c>
-      <c r="C53">
-        <v>470</v>
-      </c>
-      <c r="D53">
-        <v>19.32</v>
-      </c>
-      <c r="E53">
-        <v>284.99</v>
-      </c>
-      <c r="G53">
-        <f>+J$3*L$3*(C53-C$6)/M$3+K$3</f>
-        <v>1128</v>
-      </c>
-      <c r="H53" s="8">
-        <f t="shared" si="10"/>
-        <v>19.32</v>
-      </c>
-      <c r="I53" s="8">
-        <f t="shared" si="11"/>
-        <v>284.99</v>
-      </c>
-      <c r="J53" s="6">
-        <f t="shared" si="12"/>
-        <v>832.19789152486942</v>
-      </c>
-      <c r="K53" s="6">
-        <f t="shared" si="13"/>
-        <v>-3107.974487192439</v>
-      </c>
-      <c r="L53" s="6">
-        <f t="shared" si="14"/>
-        <v>-124.27819918203977</v>
-      </c>
-      <c r="M53" s="6">
-        <f t="shared" si="15"/>
-        <v>94.335492466801952</v>
-      </c>
-      <c r="N53">
-        <f t="shared" si="16"/>
-        <v>-37.200937456755007</v>
-      </c>
-      <c r="O53" s="2">
-        <f t="shared" si="17"/>
-        <v>322.79906254324499</v>
-      </c>
-      <c r="P53" s="9">
-        <f>(SQRT(L53*L53+M53*M53))/(C53-C52)*(P$1)</f>
-        <v>15.602645907308414</v>
-      </c>
-      <c r="S53" s="6">
-        <f>ROUND(K53,0)</f>
-        <v>-3108</v>
-      </c>
-      <c r="T53" s="6">
-        <f>ROUND(J53,0)</f>
-        <v>832</v>
-      </c>
-      <c r="U53" s="2">
-        <f t="shared" si="18"/>
-        <v>322.79906254324499</v>
-      </c>
-      <c r="V53">
-        <f t="shared" si="19"/>
-        <v>1128</v>
-      </c>
-      <c r="W53" s="3">
-        <f t="shared" si="20"/>
-        <v>15.602645907308414</v>
-      </c>
-      <c r="X53">
-        <f t="shared" si="21"/>
-        <v>1128</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>